--- a/raw-data/final_kri_data/Demographic information Final version_March 12, 2020.xlsx
+++ b/raw-data/final_kri_data/Demographic information Final version_March 12, 2020.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Homeira\Documents\Nature-Communication\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Homeira\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AB274ECE-DAD7-4A6E-B2F2-9A0F04A4EBA9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74F9BA10-9551-4EC3-B594-D34E9690DD8D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="L23-cells" sheetId="1" r:id="rId1"/>
@@ -19,15 +19,10 @@
     <sheet name="Layer 5- cells" sheetId="2" r:id="rId4"/>
     <sheet name="Layer 3" sheetId="7" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -39,7 +34,7 @@
     <author>uhn436781u</author>
   </authors>
   <commentList>
-    <comment ref="F48" authorId="0" shapeId="0" xr:uid="{4FBC1BE5-1985-4FE5-BC29-BD110102AE7E}">
+    <comment ref="F47" authorId="0" shapeId="0" xr:uid="{4FBC1BE5-1985-4FE5-BC29-BD110102AE7E}">
       <text>
         <r>
           <rPr>
@@ -69,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="402">
   <si>
     <t>2015_11_09_0003.abf</t>
   </si>
@@ -320,9 +315,6 @@
     <t>15o08022.abf</t>
   </si>
   <si>
-    <t>15o08025.abf</t>
-  </si>
-  <si>
     <t>15o08032.abf</t>
   </si>
   <si>
@@ -992,15 +984,6 @@
     <t>19122017.abf</t>
   </si>
   <si>
-    <t>19122022.abf</t>
-  </si>
-  <si>
-    <t>19122043.abf</t>
-  </si>
-  <si>
-    <t>19129047.abf</t>
-  </si>
-  <si>
     <t>19129052.abf</t>
   </si>
   <si>
@@ -1133,27 +1116,9 @@
     <t>(borderline)</t>
   </si>
   <si>
-    <t>2019_11_04_0083</t>
-  </si>
-  <si>
-    <t>2019_11_26_0037</t>
-  </si>
-  <si>
-    <t>2019_11_28_0010</t>
-  </si>
-  <si>
-    <t>2019_11_28_0032</t>
-  </si>
-  <si>
     <t>2019_11_28_0093</t>
   </si>
   <si>
-    <t>2019_11_04_0001</t>
-  </si>
-  <si>
-    <t>2020_03_02_0019</t>
-  </si>
-  <si>
     <t>2020_01_06_0017</t>
   </si>
   <si>
@@ -1172,12 +1137,6 @@
     <t>2020_01_06_0095</t>
   </si>
   <si>
-    <t>2020_01_06_0101</t>
-  </si>
-  <si>
-    <t>2020_01_06_0108</t>
-  </si>
-  <si>
     <t>2019_11_04_0113</t>
   </si>
   <si>
@@ -1217,9 +1176,6 @@
     <t>2020_01_28_0029</t>
   </si>
   <si>
-    <t>2019-01-228</t>
-  </si>
-  <si>
     <t>19128003.abf</t>
   </si>
   <si>
@@ -1305,6 +1261,15 @@
   </si>
   <si>
     <t>YES</t>
+  </si>
+  <si>
+    <t>LSc,PGB,PHN</t>
+  </si>
+  <si>
+    <t>2019_11_28_0079</t>
+  </si>
+  <si>
+    <t>19129043.abf</t>
   </si>
 </sst>
 </file>
@@ -1314,7 +1279,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1472,6 +1437,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -1544,7 +1515,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1584,9 +1555,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1624,8 +1592,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1644,20 +1610,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1674,6 +1631,19 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1697,13 +1667,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2056,50 +2026,50 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T33"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="22.73046875" customWidth="1"/>
-    <col min="3" max="3" width="24.265625" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" customWidth="1"/>
+    <col min="3" max="3" width="24.28515625" customWidth="1"/>
     <col min="4" max="4" width="27" customWidth="1"/>
-    <col min="5" max="5" width="24.59765625" customWidth="1"/>
-    <col min="6" max="6" width="19.265625" customWidth="1"/>
-    <col min="7" max="7" width="16.1328125" customWidth="1"/>
-    <col min="8" max="8" width="21.796875" customWidth="1"/>
-    <col min="9" max="9" width="15.1328125" customWidth="1"/>
-    <col min="10" max="10" width="17.265625" customWidth="1"/>
-    <col min="11" max="11" width="21.86328125" customWidth="1"/>
-    <col min="12" max="12" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.7109375" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" customWidth="1"/>
+    <col min="8" max="8" width="21.85546875" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" customWidth="1"/>
+    <col min="10" max="10" width="17.28515625" customWidth="1"/>
+    <col min="11" max="11" width="21.85546875" customWidth="1"/>
+    <col min="12" max="12" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
         <v>42317</v>
       </c>
       <c r="C4" s="2">
         <v>42425</v>
       </c>
-      <c r="D4" s="65">
+      <c r="D4" s="59">
         <v>42430</v>
       </c>
       <c r="E4" s="2">
         <v>42432</v>
       </c>
-      <c r="F4" s="35">
+      <c r="F4" s="34">
         <v>43487</v>
       </c>
       <c r="G4" s="2">
@@ -2114,15 +2084,15 @@
       <c r="L4" s="4"/>
       <c r="M4" s="5"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F5" t="s">
-        <v>402</v>
+        <v>389</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>403</v>
+        <v>390</v>
       </c>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
@@ -2130,7 +2100,7 @@
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
         <v>0</v>
       </c>
@@ -2144,16 +2114,16 @@
         <v>15</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
         <v>1</v>
       </c>
@@ -2166,17 +2136,15 @@
       <c r="E7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="5" t="s">
-        <v>307</v>
-      </c>
+      <c r="F7" s="5"/>
       <c r="G7" s="5" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
         <v>2</v>
       </c>
@@ -2187,17 +2155,12 @@
       <c r="E8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>312</v>
-      </c>
+      <c r="F8" s="5"/>
       <c r="H8" s="5" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
         <v>4</v>
       </c>
@@ -2208,12 +2171,10 @@
       <c r="E9" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="5" t="s">
-        <v>308</v>
-      </c>
+      <c r="F9" s="5"/>
       <c r="H9" s="5"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
         <v>5</v>
       </c>
@@ -2223,10 +2184,9 @@
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
       <c r="H10" s="5"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
         <v>6</v>
       </c>
@@ -2239,7 +2199,7 @@
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -2248,7 +2208,7 @@
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -2257,14 +2217,14 @@
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
     </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B18" s="7">
         <v>41702</v>
       </c>
@@ -2298,7 +2258,7 @@
       <c r="S18" s="6"/>
       <c r="T18" s="5"/>
     </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
@@ -2308,7 +2268,7 @@
       <c r="S19" s="5"/>
       <c r="T19" s="5"/>
     </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
         <v>19</v>
       </c>
@@ -2340,7 +2300,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
         <v>20</v>
       </c>
@@ -2368,7 +2328,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B22" s="5"/>
       <c r="C22" s="5" t="s">
         <v>23</v>
@@ -2394,7 +2354,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="23" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
@@ -2418,7 +2378,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
@@ -2435,7 +2395,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
@@ -2447,44 +2407,44 @@
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:20" x14ac:dyDescent="0.25">
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
       <c r="J26" s="5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:20" x14ac:dyDescent="0.25">
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
       <c r="K27" s="5"/>
     </row>
-    <row r="28" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:20" x14ac:dyDescent="0.25">
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
       <c r="K28" s="5"/>
     </row>
-    <row r="29" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:20" x14ac:dyDescent="0.25">
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
       <c r="J29" s="5"/>
       <c r="K29" s="5"/>
     </row>
-    <row r="30" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:20" x14ac:dyDescent="0.25">
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
       <c r="K30" s="5"/>
     </row>
-    <row r="31" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:20" x14ac:dyDescent="0.25">
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
       <c r="J31" s="5"/>
       <c r="K31" s="5"/>
     </row>
-    <row r="33" s="5" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="33" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2492,50 +2452,50 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CF76916-846E-4B81-A46E-ACDA0D8C9BED}">
-  <dimension ref="A1:AN94"/>
+  <dimension ref="A1:AN93"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B55" sqref="B55"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A53" sqref="A53:XFD53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.265625" style="46" customWidth="1"/>
-    <col min="2" max="2" width="10.86328125" style="9" customWidth="1"/>
-    <col min="3" max="3" width="6.59765625" style="9" customWidth="1"/>
-    <col min="4" max="4" width="20.265625" customWidth="1"/>
-    <col min="5" max="5" width="71.59765625" customWidth="1"/>
-    <col min="6" max="6" width="30.59765625" customWidth="1"/>
-    <col min="7" max="7" width="83.59765625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.265625" customWidth="1"/>
-    <col min="11" max="11" width="31.1328125" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" style="45" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" style="9" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" style="9" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" customWidth="1"/>
+    <col min="5" max="5" width="71.7109375" customWidth="1"/>
+    <col min="6" max="6" width="30.7109375" customWidth="1"/>
+    <col min="7" max="7" width="83.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.28515625" customWidth="1"/>
+    <col min="11" max="11" width="31.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A1" s="44" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="43" t="s">
+        <v>172</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="C1" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="F1" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="C1" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="E1" s="12" t="s">
+      <c r="G1" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="F1" s="12" t="s">
-        <v>175</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="17">
         <v>41610</v>
       </c>
@@ -2543,22 +2503,22 @@
         <v>39</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D2">
         <v>11</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="17">
         <v>41611</v>
       </c>
@@ -2566,136 +2526,153 @@
         <v>58</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D3">
         <v>8</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="E3" s="23" t="s">
+        <v>242</v>
+      </c>
+      <c r="F3" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="G3" s="23" t="s">
         <v>243</v>
       </c>
-      <c r="F3" s="25" t="s">
-        <v>221</v>
-      </c>
-      <c r="G3" s="24" t="s">
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="17">
+        <v>41583</v>
+      </c>
+      <c r="B4" s="9">
+        <v>57</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="D4">
+        <v>45</v>
+      </c>
+      <c r="E4" s="22" t="s">
         <v>244</v>
       </c>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A4" s="23"/>
-      <c r="B4" s="57"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="F4" t="s">
+        <v>245</v>
+      </c>
+      <c r="G4" s="22" t="s">
+        <v>246</v>
+      </c>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="17">
-        <v>41583</v>
+        <v>41599</v>
       </c>
       <c r="B5" s="9">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D5">
-        <v>45</v>
-      </c>
-      <c r="E5" s="22" t="s">
-        <v>245</v>
-      </c>
-      <c r="F5" t="s">
-        <v>246</v>
-      </c>
-      <c r="G5" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="25" t="s">
         <v>247</v>
       </c>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="F5" s="24" t="s">
+        <v>248</v>
+      </c>
+      <c r="G5" s="26" t="s">
+        <v>249</v>
+      </c>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="23"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="17">
-        <v>41599</v>
-      </c>
-      <c r="B6" s="9">
-        <v>27</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="D6">
-        <v>11</v>
-      </c>
-      <c r="E6" s="26" t="s">
-        <v>248</v>
-      </c>
-      <c r="F6" s="25" t="s">
-        <v>249</v>
-      </c>
-      <c r="G6" s="27" t="s">
-        <v>250</v>
-      </c>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="24"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
+        <v>42171</v>
+      </c>
+      <c r="B6" s="55">
+        <v>24</v>
+      </c>
+      <c r="C6" s="55" t="s">
+        <v>164</v>
+      </c>
+      <c r="D6" s="18">
+        <v>8</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="G6" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="17">
-        <v>42171</v>
-      </c>
-      <c r="B7" s="58">
-        <v>24</v>
-      </c>
-      <c r="C7" s="58" t="s">
-        <v>165</v>
-      </c>
-      <c r="D7" s="18">
-        <v>8</v>
-      </c>
-      <c r="F7" s="5" t="s">
+        <v>42173</v>
+      </c>
+      <c r="B7" s="9">
+        <v>25</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="D7">
+        <v>12</v>
+      </c>
+      <c r="E7" t="s">
+        <v>203</v>
+      </c>
+      <c r="F7" t="s">
         <v>226</v>
       </c>
       <c r="G7" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A8" s="17">
-        <v>42173</v>
+        <v>213</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="20">
+        <v>42177</v>
       </c>
       <c r="B8" s="9">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D8">
-        <v>12</v>
-      </c>
-      <c r="E8" t="s">
-        <v>204</v>
+        <v>4</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>227</v>
       </c>
       <c r="F8" t="s">
-        <v>227</v>
-      </c>
-      <c r="G8" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A9" s="20">
-        <v>42177</v>
+        <v>228</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+    </row>
+    <row r="9" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="17">
+        <v>42208</v>
       </c>
       <c r="B9" s="9">
         <v>33</v>
@@ -2704,218 +2681,220 @@
         <v>164</v>
       </c>
       <c r="D9">
+        <v>14</v>
+      </c>
+      <c r="E9" t="s">
+        <v>204</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>230</v>
+      </c>
+      <c r="G9" t="s">
+        <v>205</v>
+      </c>
+      <c r="H9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="17">
+        <v>42236</v>
+      </c>
+      <c r="B10" s="9">
+        <v>22</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="D10">
+        <v>6</v>
+      </c>
+      <c r="F10" t="s">
+        <v>231</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="17">
+        <v>42285</v>
+      </c>
+      <c r="B11" s="9">
+        <v>21</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11" t="s">
+        <v>207</v>
+      </c>
+      <c r="F11" t="s">
+        <v>233</v>
+      </c>
+      <c r="G11" t="s">
+        <v>208</v>
+      </c>
+      <c r="H11" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="17">
+        <v>41619</v>
+      </c>
+      <c r="B12" s="9">
+        <v>22</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="D12">
+        <v>12</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>247</v>
+      </c>
+      <c r="F12" t="s">
+        <v>250</v>
+      </c>
+      <c r="G12" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="17">
+        <v>41666</v>
+      </c>
+      <c r="B13" s="9">
+        <v>23</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="D13">
+        <v>23</v>
+      </c>
+      <c r="E13" s="23" t="s">
+        <v>247</v>
+      </c>
+      <c r="F13" s="23" t="s">
+        <v>251</v>
+      </c>
+      <c r="G13" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="17">
+        <v>42397</v>
+      </c>
+      <c r="B14" s="9">
+        <v>53</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="D14">
+        <v>43</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="G14" t="s">
+        <v>210</v>
+      </c>
+      <c r="H14" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="17">
+        <v>42404</v>
+      </c>
+      <c r="B15" s="9">
+        <v>37</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15" t="s">
+        <v>211</v>
+      </c>
+      <c r="F15" s="22" t="s">
+        <v>236</v>
+      </c>
+      <c r="G15" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="17">
+        <v>42429</v>
+      </c>
+      <c r="B16" s="9">
+        <v>47</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="D16">
         <v>4</v>
       </c>
-      <c r="E9" s="16" t="s">
-        <v>228</v>
-      </c>
-      <c r="F9" t="s">
-        <v>229</v>
-      </c>
-      <c r="G9" s="16" t="s">
-        <v>230</v>
-      </c>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-    </row>
-    <row r="10" spans="1:13" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A10" s="17">
-        <v>42208</v>
-      </c>
-      <c r="B10" s="9">
-        <v>33</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="D10">
-        <v>14</v>
-      </c>
-      <c r="E10" t="s">
-        <v>205</v>
-      </c>
-      <c r="F10" s="19" t="s">
-        <v>231</v>
-      </c>
-      <c r="G10" t="s">
-        <v>206</v>
-      </c>
-      <c r="H10" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A11" s="17">
-        <v>42236</v>
-      </c>
-      <c r="B11" s="9">
-        <v>22</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="D11">
-        <v>6</v>
-      </c>
-      <c r="F11" t="s">
-        <v>232</v>
-      </c>
-      <c r="G11" s="16" t="s">
-        <v>233</v>
-      </c>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="16"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A12" s="17">
-        <v>42285</v>
-      </c>
-      <c r="B12" s="9">
-        <v>21</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="D12">
-        <v>2</v>
-      </c>
-      <c r="E12" t="s">
-        <v>208</v>
-      </c>
-      <c r="F12" t="s">
-        <v>234</v>
-      </c>
-      <c r="G12" t="s">
-        <v>209</v>
-      </c>
-      <c r="H12" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A13" s="17">
-        <v>41619</v>
-      </c>
-      <c r="B13" s="9">
-        <v>22</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="D13">
-        <v>12</v>
-      </c>
-      <c r="E13" s="22" t="s">
-        <v>248</v>
-      </c>
-      <c r="F13" t="s">
-        <v>251</v>
-      </c>
-      <c r="G13" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A14" s="17">
-        <v>41666</v>
-      </c>
-      <c r="B14" s="9">
-        <v>23</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="D14">
-        <v>23</v>
-      </c>
-      <c r="E14" s="24" t="s">
-        <v>248</v>
-      </c>
-      <c r="F14" s="24" t="s">
-        <v>252</v>
-      </c>
-      <c r="G14" s="24" t="s">
-        <v>253</v>
-      </c>
-      <c r="H14" s="24"/>
-      <c r="I14" s="24"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="24"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A15" s="17">
-        <v>42397</v>
-      </c>
-      <c r="B15" s="9">
-        <v>53</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="D15">
-        <v>43</v>
-      </c>
-      <c r="E15" s="16" t="s">
-        <v>203</v>
-      </c>
-      <c r="F15" s="16" t="s">
-        <v>236</v>
-      </c>
-      <c r="G15" t="s">
-        <v>211</v>
-      </c>
-      <c r="H15" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A16" s="17">
-        <v>42404</v>
-      </c>
-      <c r="B16" s="9">
-        <v>37</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="D16">
-        <v>2</v>
-      </c>
-      <c r="E16" t="s">
-        <v>212</v>
-      </c>
-      <c r="F16" s="22" t="s">
+      <c r="E16" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="F16" s="16" t="s">
         <v>237</v>
       </c>
-      <c r="G16" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="G16" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="17">
-        <v>42429</v>
+        <v>42430</v>
       </c>
       <c r="B17" s="9">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>164</v>
       </c>
       <c r="D17">
-        <v>4</v>
-      </c>
-      <c r="E17" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" t="s">
+        <v>191</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>237</v>
+      </c>
+      <c r="G17" s="16" t="s">
         <v>192</v>
-      </c>
-      <c r="F17" s="16" t="s">
-        <v>238</v>
-      </c>
-      <c r="G17" s="16" t="s">
-        <v>193</v>
       </c>
       <c r="H17" s="16"/>
       <c r="I17" s="16"/>
@@ -2923,943 +2902,966 @@
       <c r="K17" s="16"/>
       <c r="L17" s="16"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="17">
-        <v>42430</v>
-      </c>
-      <c r="B18" s="9">
-        <v>52</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="D18">
-        <v>13</v>
-      </c>
-      <c r="E18" t="s">
-        <v>192</v>
-      </c>
-      <c r="F18" s="16" t="s">
-        <v>238</v>
-      </c>
-      <c r="G18" s="16" t="s">
-        <v>193</v>
-      </c>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="16"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
+        <v>41751</v>
+      </c>
+      <c r="B18" s="54"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="17">
-        <v>41751</v>
-      </c>
-      <c r="B19" s="57"/>
-      <c r="C19" s="57"/>
+        <v>41774</v>
+      </c>
+      <c r="B19" s="54"/>
+      <c r="C19" s="54"/>
       <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
+      <c r="E19" s="10" t="s">
+        <v>216</v>
+      </c>
       <c r="F19" s="10"/>
       <c r="G19" s="10"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="17">
-        <v>41774</v>
-      </c>
-      <c r="B20" s="57"/>
-      <c r="C20" s="57"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10" t="s">
-        <v>217</v>
-      </c>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
+        <v>41779</v>
+      </c>
+      <c r="B20" s="9">
+        <v>50</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="D20">
+        <v>26</v>
+      </c>
+      <c r="E20" s="23" t="s">
+        <v>247</v>
+      </c>
+      <c r="F20" s="24" t="s">
+        <v>253</v>
+      </c>
+      <c r="G20" s="23" t="s">
+        <v>254</v>
+      </c>
+      <c r="H20" s="23"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="23"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="17">
-        <v>41779</v>
-      </c>
-      <c r="B21" s="9">
-        <v>50</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="D21">
-        <v>26</v>
-      </c>
-      <c r="E21" s="24" t="s">
-        <v>248</v>
-      </c>
-      <c r="F21" s="25" t="s">
-        <v>254</v>
-      </c>
-      <c r="G21" s="24" t="s">
-        <v>255</v>
-      </c>
-      <c r="H21" s="24"/>
-      <c r="I21" s="24"/>
-      <c r="J21" s="24"/>
-      <c r="K21" s="24"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
+        <v>41795</v>
+      </c>
+      <c r="B21" s="54"/>
+      <c r="C21" s="54"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="17">
-        <v>41795</v>
-      </c>
-      <c r="B22" s="57"/>
-      <c r="C22" s="57"/>
+        <v>41807</v>
+      </c>
+      <c r="B22" s="54"/>
+      <c r="C22" s="54"/>
       <c r="D22" s="10"/>
       <c r="E22" s="10"/>
       <c r="F22" s="10"/>
       <c r="G22" s="10"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="17">
-        <v>41807</v>
-      </c>
-      <c r="B23" s="57"/>
-      <c r="C23" s="57"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
+        <v>41814</v>
+      </c>
+      <c r="B23" s="9">
+        <v>36</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="D23">
+        <v>34</v>
+      </c>
+      <c r="E23" s="23" t="s">
+        <v>255</v>
+      </c>
+      <c r="F23" s="24" t="s">
+        <v>256</v>
+      </c>
+      <c r="G23" s="23" t="s">
+        <v>257</v>
+      </c>
+      <c r="H23" s="23"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="23"/>
+      <c r="K23" s="23"/>
+      <c r="L23" s="23"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="17">
-        <v>41814</v>
+        <v>41816</v>
       </c>
       <c r="B24" s="9">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C24" s="9" t="s">
         <v>164</v>
       </c>
       <c r="D24">
-        <v>34</v>
-      </c>
-      <c r="E24" s="24" t="s">
-        <v>256</v>
-      </c>
-      <c r="F24" s="25" t="s">
-        <v>257</v>
-      </c>
-      <c r="G24" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24" s="22" t="s">
         <v>258</v>
       </c>
-      <c r="H24" s="24"/>
-      <c r="I24" s="24"/>
-      <c r="J24" s="24"/>
-      <c r="K24" s="24"/>
-      <c r="L24" s="24"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A25" s="17">
-        <v>41816</v>
-      </c>
-      <c r="B25" s="9">
-        <v>40</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="D25">
-        <v>29</v>
-      </c>
-      <c r="E25" s="22" t="s">
+      <c r="F24" t="s">
+        <v>228</v>
+      </c>
+      <c r="G24" s="22" t="s">
+        <v>254</v>
+      </c>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="22"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="21">
+        <v>41835</v>
+      </c>
+      <c r="B25" s="54"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="21">
+        <v>41893</v>
+      </c>
+      <c r="B26" s="9">
+        <v>25</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="D26">
+        <v>10</v>
+      </c>
+      <c r="E26" s="23" t="s">
+        <v>247</v>
+      </c>
+      <c r="F26" s="23" t="s">
+        <v>235</v>
+      </c>
+      <c r="G26" s="23" t="s">
         <v>259</v>
       </c>
-      <c r="F25" t="s">
-        <v>229</v>
-      </c>
-      <c r="G25" s="22" t="s">
-        <v>255</v>
-      </c>
-      <c r="H25" s="22"/>
-      <c r="I25" s="22"/>
-      <c r="J25" s="22"/>
-      <c r="K25" s="22"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A26" s="21">
-        <v>41835</v>
-      </c>
-      <c r="B26" s="57"/>
-      <c r="C26" s="57"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="H26" s="23"/>
+      <c r="I26" s="23"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="21">
-        <v>41893</v>
+        <v>41900</v>
       </c>
       <c r="B27" s="9">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="C27" s="9" t="s">
         <v>164</v>
       </c>
       <c r="D27">
-        <v>10</v>
-      </c>
-      <c r="E27" s="24" t="s">
-        <v>248</v>
-      </c>
-      <c r="F27" s="24" t="s">
-        <v>236</v>
-      </c>
-      <c r="G27" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27" s="23" t="s">
+        <v>247</v>
+      </c>
+      <c r="F27" s="23" t="s">
         <v>260</v>
       </c>
-      <c r="H27" s="24"/>
-      <c r="I27" s="24"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A28" s="21">
-        <v>41900</v>
+      <c r="G27" s="25" t="s">
+        <v>261</v>
+      </c>
+      <c r="H27" s="23"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="23"/>
+      <c r="K27" s="23"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="17">
+        <v>41946</v>
       </c>
       <c r="B28" s="9">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D28">
-        <v>27</v>
-      </c>
-      <c r="E28" s="24" t="s">
-        <v>248</v>
-      </c>
-      <c r="F28" s="24" t="s">
-        <v>261</v>
-      </c>
-      <c r="G28" s="26" t="s">
-        <v>262</v>
-      </c>
-      <c r="H28" s="24"/>
-      <c r="I28" s="24"/>
-      <c r="J28" s="24"/>
-      <c r="K28" s="24"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.45">
+        <v>11</v>
+      </c>
+      <c r="E28" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="F28" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="G28" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="17">
-        <v>41946</v>
+        <v>41947</v>
       </c>
       <c r="B29" s="9">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D29">
-        <v>11</v>
-      </c>
-      <c r="E29" s="15" t="s">
-        <v>218</v>
-      </c>
-      <c r="F29" s="15" t="s">
+        <v>0.1</v>
+      </c>
+      <c r="E29" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="F29" s="16" t="s">
         <v>219</v>
       </c>
       <c r="G29" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="17">
         <v>41947</v>
       </c>
       <c r="B30" s="9">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D30">
-        <v>0.1</v>
-      </c>
-      <c r="E30" s="16" t="s">
-        <v>176</v>
+        <v>22</v>
       </c>
       <c r="F30" s="16" t="s">
         <v>220</v>
       </c>
       <c r="G30" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A31" s="17">
-        <v>41947</v>
-      </c>
-      <c r="B31" s="9">
-        <v>42</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="D31">
-        <v>22</v>
-      </c>
-      <c r="F31" s="16" t="s">
-        <v>221</v>
-      </c>
-      <c r="G31" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.45">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="21">
+        <v>41953</v>
+      </c>
+      <c r="B31" s="54"/>
+      <c r="C31" s="54"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="21">
-        <v>41953</v>
-      </c>
-      <c r="B32" s="57"/>
-      <c r="C32" s="57"/>
+        <v>42059</v>
+      </c>
+      <c r="B32" s="54"/>
+      <c r="C32" s="54"/>
       <c r="D32" s="10"/>
       <c r="E32" s="10"/>
       <c r="F32" s="10"/>
       <c r="G32" s="10"/>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A33" s="21">
-        <v>42059</v>
-      </c>
-      <c r="B33" s="57"/>
-      <c r="C33" s="57"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-    </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A34" s="17">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A33" s="17">
         <v>42065</v>
       </c>
-      <c r="B34" s="58">
+      <c r="B33" s="55">
         <v>22</v>
       </c>
-      <c r="C34" s="58" t="s">
-        <v>164</v>
+      <c r="C33" s="55" t="s">
+        <v>163</v>
+      </c>
+      <c r="D33">
+        <v>19</v>
+      </c>
+      <c r="E33" t="s">
+        <v>178</v>
+      </c>
+      <c r="F33" s="16" t="s">
+        <v>224</v>
+      </c>
+      <c r="G33" t="s">
+        <v>179</v>
+      </c>
+      <c r="H33" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q33" s="13"/>
+      <c r="R33" s="13"/>
+      <c r="S33" s="13"/>
+      <c r="T33" s="13"/>
+      <c r="U33" s="13"/>
+      <c r="V33" s="13"/>
+      <c r="W33" s="13"/>
+      <c r="X33" s="13"/>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A34" s="21">
+        <v>42093</v>
+      </c>
+      <c r="B34" s="9">
+        <v>25</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>163</v>
       </c>
       <c r="D34">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E34" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F34" s="16" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="G34" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H34" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q34" s="13"/>
-      <c r="R34" s="13"/>
-      <c r="S34" s="13"/>
-      <c r="T34" s="13"/>
-      <c r="U34" s="13"/>
-      <c r="V34" s="13"/>
-      <c r="W34" s="13"/>
-      <c r="X34" s="13"/>
-    </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.45">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A35" s="21">
-        <v>42093</v>
-      </c>
-      <c r="B35" s="9">
-        <v>25</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="D35">
-        <v>22</v>
-      </c>
-      <c r="E35" t="s">
-        <v>182</v>
-      </c>
-      <c r="F35" s="16" t="s">
-        <v>235</v>
-      </c>
-      <c r="G35" t="s">
-        <v>183</v>
-      </c>
-      <c r="H35" t="s">
+        <v>42101</v>
+      </c>
+      <c r="B35" s="54"/>
+      <c r="C35" s="54"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A36" s="21">
+        <v>42114</v>
+      </c>
+      <c r="B36" s="66">
+        <v>24</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="D36" s="14">
+        <v>3</v>
+      </c>
+      <c r="E36" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A36" s="21">
-        <v>42101</v>
-      </c>
-      <c r="B36" s="57"/>
-      <c r="C36" s="57"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
-    </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="F36" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="G36" t="s">
+        <v>185</v>
+      </c>
+      <c r="H36" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A37" s="21">
-        <v>42114</v>
-      </c>
-      <c r="B37" s="59">
-        <v>24</v>
+        <v>42317</v>
+      </c>
+      <c r="B37" s="9">
+        <v>53</v>
       </c>
       <c r="C37" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="D37" s="14">
-        <v>3</v>
+      <c r="D37">
+        <v>9</v>
       </c>
       <c r="E37" t="s">
-        <v>185</v>
-      </c>
-      <c r="F37" s="16" t="s">
-        <v>229</v>
+        <v>187</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>228</v>
       </c>
       <c r="G37" t="s">
-        <v>186</v>
-      </c>
-      <c r="H37" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A38" s="21">
-        <v>42317</v>
-      </c>
-      <c r="B38" s="9">
-        <v>53</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="D38">
-        <v>9</v>
-      </c>
-      <c r="E38" t="s">
         <v>188</v>
       </c>
-      <c r="F38" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="G38" t="s">
+    </row>
+    <row r="38" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="17">
+        <v>42425</v>
+      </c>
+      <c r="B38" s="58">
+        <v>45</v>
+      </c>
+      <c r="C38" s="58" t="s">
+        <v>163</v>
+      </c>
+      <c r="D38" s="5">
+        <v>20</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="F38" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="G38" s="5" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="39" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="H38" s="5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="17">
-        <v>42425</v>
-      </c>
-      <c r="B39" s="63">
-        <v>45</v>
-      </c>
-      <c r="C39" s="63" t="s">
-        <v>164</v>
+        <v>42432</v>
+      </c>
+      <c r="B39" s="58">
+        <v>26</v>
+      </c>
+      <c r="C39" s="58" t="s">
+        <v>163</v>
       </c>
       <c r="D39" s="5">
-        <v>20</v>
-      </c>
-      <c r="E39" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F39" s="16" t="s">
         <v>239</v>
       </c>
-      <c r="F39" s="16" t="s">
-        <v>222</v>
-      </c>
       <c r="G39" s="5" t="s">
-        <v>190</v>
+        <v>213</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="40" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.45">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A40" s="17">
-        <v>42432</v>
-      </c>
-      <c r="B40" s="63">
-        <v>26</v>
-      </c>
-      <c r="C40" s="63" t="s">
-        <v>164</v>
-      </c>
-      <c r="D40" s="5">
-        <v>25</v>
-      </c>
-      <c r="F40" s="16" t="s">
-        <v>240</v>
-      </c>
-      <c r="G40" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="H40" s="5" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.45">
+        <v>41702</v>
+      </c>
+      <c r="B40" s="9">
+        <v>35</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="D40">
+        <v>14</v>
+      </c>
+      <c r="E40" s="23" t="s">
+        <v>262</v>
+      </c>
+      <c r="F40" t="s">
+        <v>264</v>
+      </c>
+      <c r="G40" s="25" t="s">
+        <v>261</v>
+      </c>
+      <c r="H40" s="23"/>
+      <c r="I40" s="23"/>
+      <c r="J40" s="23"/>
+      <c r="K40" s="23"/>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A41" s="17">
-        <v>41702</v>
+        <v>41715</v>
       </c>
       <c r="B41" s="9">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="C41" s="9" t="s">
         <v>164</v>
       </c>
       <c r="D41">
-        <v>14</v>
-      </c>
-      <c r="E41" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E41" s="23" t="s">
         <v>263</v>
       </c>
-      <c r="F41" t="s">
+      <c r="F41" s="23" t="s">
         <v>265</v>
       </c>
-      <c r="G41" s="26" t="s">
-        <v>262</v>
-      </c>
-      <c r="H41" s="24"/>
-      <c r="I41" s="24"/>
-      <c r="J41" s="24"/>
-      <c r="K41" s="24"/>
-    </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="G41" s="23" t="s">
+        <v>259</v>
+      </c>
+      <c r="H41" s="23"/>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A42" s="17">
-        <v>41715</v>
+        <v>41716</v>
       </c>
       <c r="B42" s="9">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D42">
-        <v>6</v>
-      </c>
-      <c r="E42" s="24" t="s">
-        <v>264</v>
-      </c>
-      <c r="F42" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="E42" s="23" t="s">
         <v>266</v>
       </c>
-      <c r="G42" s="24" t="s">
-        <v>260</v>
-      </c>
-      <c r="H42" s="24"/>
-    </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="F42" s="23" t="s">
+        <v>267</v>
+      </c>
+      <c r="G42" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A43" s="17">
-        <v>41716</v>
-      </c>
-      <c r="B43" s="9">
-        <v>53</v>
-      </c>
-      <c r="C43" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="D43">
-        <v>51</v>
-      </c>
-      <c r="E43" s="24" t="s">
-        <v>267</v>
-      </c>
-      <c r="F43" s="24" t="s">
-        <v>268</v>
-      </c>
-      <c r="G43" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.45">
+        <v>41737</v>
+      </c>
+      <c r="B43" s="54"/>
+      <c r="C43" s="54"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="H43" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A44" s="17">
-        <v>41737</v>
-      </c>
-      <c r="B44" s="57"/>
-      <c r="C44" s="57"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="10"/>
-      <c r="G44" s="10"/>
-      <c r="H44" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.45">
+        <v>41975</v>
+      </c>
+      <c r="B44" s="9">
+        <v>44</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="D44">
+        <v>3</v>
+      </c>
+      <c r="E44" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="F44" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="G44" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A45" s="17">
-        <v>41975</v>
+        <v>41989</v>
       </c>
       <c r="B45" s="9">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="C45" s="9" t="s">
         <v>164</v>
       </c>
       <c r="D45">
-        <v>3</v>
-      </c>
-      <c r="E45" s="16" t="s">
-        <v>195</v>
+        <v>14</v>
       </c>
       <c r="F45" s="16" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G45" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.45">
+        <v>215</v>
+      </c>
+      <c r="H45" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A46" s="17">
         <v>41989</v>
       </c>
       <c r="B46" s="9">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D46">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F46" s="16" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G46" t="s">
-        <v>216</v>
-      </c>
-      <c r="H46" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A47" s="17">
-        <v>41989</v>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A47" s="21">
+        <v>41991</v>
       </c>
       <c r="B47" s="9">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="C47" s="9" t="s">
         <v>164</v>
       </c>
       <c r="D47">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F47" s="16" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="G47" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="H47" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A48" s="21">
-        <v>41991</v>
+        <v>42009</v>
       </c>
       <c r="B48" s="9">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D48">
-        <v>12</v>
+        <v>5</v>
+      </c>
+      <c r="E48" s="38" t="s">
+        <v>266</v>
       </c>
       <c r="F48" s="16" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="G48" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="H48" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="49" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A49" s="21">
-        <v>42009</v>
-      </c>
-      <c r="B49" s="9">
-        <v>26</v>
-      </c>
-      <c r="C49" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="D49">
-        <v>5</v>
-      </c>
-      <c r="E49" s="39" t="s">
-        <v>267</v>
-      </c>
-      <c r="F49" s="16" t="s">
-        <v>224</v>
-      </c>
-      <c r="G49" t="s">
-        <v>214</v>
-      </c>
-      <c r="H49" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="50" spans="1:40" x14ac:dyDescent="0.45">
+        <v>42031</v>
+      </c>
+      <c r="B49" s="54"/>
+      <c r="C49" s="54"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+    </row>
+    <row r="50" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A50" s="21">
-        <v>42031</v>
-      </c>
-      <c r="B50" s="57"/>
-      <c r="C50" s="57"/>
+        <v>42075</v>
+      </c>
+      <c r="B50" s="54"/>
+      <c r="C50" s="54"/>
       <c r="D50" s="10"/>
       <c r="E50" s="10"/>
       <c r="F50" s="10"/>
       <c r="G50" s="10"/>
     </row>
-    <row r="51" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A51" s="21">
-        <v>42075</v>
-      </c>
-      <c r="B51" s="57"/>
-      <c r="C51" s="57"/>
-      <c r="D51" s="10"/>
-      <c r="E51" s="10"/>
-      <c r="F51" s="10"/>
-      <c r="G51" s="10"/>
-    </row>
-    <row r="52" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A52" s="67">
+    <row r="51" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A51" s="61">
         <v>43487</v>
       </c>
-      <c r="B52" s="9">
+      <c r="B51" s="9">
         <v>28</v>
       </c>
-      <c r="C52" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="D52" s="36">
+      <c r="C51" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="D51" s="35">
         <v>13</v>
       </c>
-      <c r="E52" s="36" t="s">
+      <c r="E51" s="35" t="s">
+        <v>318</v>
+      </c>
+      <c r="F51" s="37" t="s">
+        <v>316</v>
+      </c>
+      <c r="G51" s="35" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="52" spans="1:40" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="61">
+        <v>43493</v>
+      </c>
+      <c r="B52" s="51">
+        <v>39</v>
+      </c>
+      <c r="C52" s="51" t="s">
+        <v>164</v>
+      </c>
+      <c r="D52" s="49">
+        <v>12</v>
+      </c>
+      <c r="E52" s="49" t="s">
+        <v>378</v>
+      </c>
+      <c r="F52" s="49" t="s">
+        <v>343</v>
+      </c>
+      <c r="G52" s="49" t="s">
+        <v>379</v>
+      </c>
+      <c r="H52" s="49" t="s">
+        <v>321</v>
+      </c>
+      <c r="I52" s="49" t="s">
+        <v>380</v>
+      </c>
+      <c r="K52" s="49" t="s">
+        <v>381</v>
+      </c>
+      <c r="L52" s="49" t="s">
+        <v>261</v>
+      </c>
+      <c r="M52" s="49" t="s">
+        <v>382</v>
+      </c>
+      <c r="N52" s="49" t="s">
+        <v>382</v>
+      </c>
+      <c r="O52" s="49" t="s">
+        <v>382</v>
+      </c>
+      <c r="S52" s="49" t="s">
+        <v>331</v>
+      </c>
+      <c r="T52" s="52" t="s">
+        <v>383</v>
+      </c>
+      <c r="U52" s="53" t="s">
+        <v>384</v>
+      </c>
+      <c r="V52" s="53">
+        <v>8</v>
+      </c>
+      <c r="W52" s="53" t="s">
+        <v>385</v>
+      </c>
+      <c r="X52" s="53" t="s">
+        <v>386</v>
+      </c>
+      <c r="Y52" s="53" t="s">
+        <v>385</v>
+      </c>
+      <c r="Z52" s="50">
+        <v>43524</v>
+      </c>
+      <c r="AC52" s="49" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="53" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A53" s="61">
+        <v>43494</v>
+      </c>
+      <c r="B53" s="9">
+        <v>52</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="D53" s="35">
+        <v>6</v>
+      </c>
+      <c r="E53" s="38" t="s">
+        <v>266</v>
+      </c>
+      <c r="F53" s="35" t="s">
+        <v>315</v>
+      </c>
+      <c r="G53" s="35" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="54" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A54" s="62">
+        <v>43544</v>
+      </c>
+      <c r="B54" s="51">
+        <v>26</v>
+      </c>
+      <c r="C54" s="51" t="s">
+        <v>163</v>
+      </c>
+      <c r="D54" s="49">
+        <v>9</v>
+      </c>
+      <c r="E54" s="49" t="s">
+        <v>378</v>
+      </c>
+      <c r="F54" s="49" t="s">
+        <v>395</v>
+      </c>
+      <c r="G54" s="49" t="s">
+        <v>320</v>
+      </c>
+      <c r="H54" s="49" t="s">
+        <v>321</v>
+      </c>
+      <c r="I54" s="49" t="s">
+        <v>394</v>
+      </c>
+      <c r="J54" s="49"/>
+      <c r="K54" s="49" t="s">
+        <v>395</v>
+      </c>
+      <c r="L54" s="49" t="s">
+        <v>396</v>
+      </c>
+      <c r="M54" s="49" t="s">
+        <v>397</v>
+      </c>
+      <c r="N54" s="49">
+        <v>94</v>
+      </c>
+      <c r="O54" s="49">
+        <v>77</v>
+      </c>
+      <c r="P54" s="49"/>
+      <c r="Q54" s="49"/>
+      <c r="R54" s="49"/>
+      <c r="S54" s="49" t="s">
+        <v>331</v>
+      </c>
+      <c r="T54" s="49"/>
+      <c r="U54" s="49"/>
+      <c r="V54" s="49"/>
+      <c r="W54" s="49"/>
+      <c r="X54" s="49"/>
+      <c r="Y54" s="49"/>
+      <c r="Z54" s="60">
+        <v>43544</v>
+      </c>
+      <c r="AA54" s="49"/>
+      <c r="AB54" s="49"/>
+      <c r="AC54" s="49" t="s">
+        <v>398</v>
+      </c>
+      <c r="AD54" s="49"/>
+      <c r="AE54" s="49"/>
+      <c r="AF54" s="49"/>
+      <c r="AG54" s="49"/>
+      <c r="AH54" s="49"/>
+      <c r="AI54" s="49"/>
+      <c r="AJ54" s="49"/>
+      <c r="AK54" s="49"/>
+      <c r="AL54" s="49"/>
+      <c r="AM54" s="49"/>
+      <c r="AN54" s="49"/>
+    </row>
+    <row r="55" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="44">
+        <v>43773</v>
+      </c>
+      <c r="B55" s="40">
+        <v>59</v>
+      </c>
+      <c r="C55" s="40" t="s">
+        <v>163</v>
+      </c>
+      <c r="D55" s="16">
+        <v>39</v>
+      </c>
+      <c r="E55" s="16" t="s">
+        <v>247</v>
+      </c>
+      <c r="F55" s="16" t="s">
+        <v>323</v>
+      </c>
+      <c r="G55" s="16" t="s">
+        <v>320</v>
+      </c>
+      <c r="H55" s="16" t="s">
+        <v>321</v>
+      </c>
+      <c r="I55" s="16" t="s">
         <v>322</v>
       </c>
-      <c r="F52" s="38" t="s">
-        <v>320</v>
-      </c>
-      <c r="G52" s="36" t="s">
+      <c r="J55" s="16"/>
+      <c r="K55" s="16" t="s">
+        <v>323</v>
+      </c>
+      <c r="L55" s="16" t="s">
+        <v>324</v>
+      </c>
+      <c r="M55" s="16" t="s">
+        <v>325</v>
+      </c>
+      <c r="N55" s="16" t="s">
+        <v>326</v>
+      </c>
+      <c r="O55" s="16">
+        <v>88</v>
+      </c>
+      <c r="P55" s="16"/>
+      <c r="Q55" s="16"/>
+      <c r="R55" s="16"/>
+      <c r="S55" s="16" t="s">
+        <v>327</v>
+      </c>
+      <c r="T55" s="16"/>
+      <c r="U55" s="16"/>
+    </row>
+    <row r="56" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="44">
+        <v>43795</v>
+      </c>
+      <c r="B56" s="40">
+        <v>37</v>
+      </c>
+      <c r="C56" s="40" t="s">
+        <v>164</v>
+      </c>
+      <c r="D56" s="16">
+        <v>5</v>
+      </c>
+      <c r="E56" s="16" t="s">
+        <v>328</v>
+      </c>
+      <c r="F56" s="16" t="s">
+        <v>323</v>
+      </c>
+      <c r="G56" s="16" t="s">
+        <v>329</v>
+      </c>
+      <c r="H56" s="16" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="53" spans="1:40" s="52" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A53" s="67">
-        <v>43493</v>
-      </c>
-      <c r="B53" s="54">
-        <v>39</v>
-      </c>
-      <c r="C53" s="54" t="s">
-        <v>165</v>
-      </c>
-      <c r="D53" s="52">
-        <v>12</v>
-      </c>
-      <c r="E53" s="52" t="s">
-        <v>391</v>
-      </c>
-      <c r="F53" s="52" t="s">
-        <v>347</v>
-      </c>
-      <c r="G53" s="52" t="s">
-        <v>392</v>
-      </c>
-      <c r="H53" s="52" t="s">
-        <v>325</v>
-      </c>
-      <c r="I53" s="52" t="s">
-        <v>393</v>
-      </c>
-      <c r="K53" s="52" t="s">
-        <v>394</v>
-      </c>
-      <c r="L53" s="52" t="s">
-        <v>262</v>
-      </c>
-      <c r="M53" s="52" t="s">
-        <v>395</v>
-      </c>
-      <c r="N53" s="52" t="s">
-        <v>395</v>
-      </c>
-      <c r="O53" s="52" t="s">
-        <v>395</v>
-      </c>
-      <c r="S53" s="52" t="s">
-        <v>335</v>
-      </c>
-      <c r="T53" s="55" t="s">
-        <v>396</v>
-      </c>
-      <c r="U53" s="56" t="s">
-        <v>397</v>
-      </c>
-      <c r="V53" s="56">
-        <v>8</v>
-      </c>
-      <c r="W53" s="56" t="s">
-        <v>398</v>
-      </c>
-      <c r="X53" s="56" t="s">
-        <v>399</v>
-      </c>
-      <c r="Y53" s="56" t="s">
-        <v>398</v>
-      </c>
-      <c r="Z53" s="53">
-        <v>43524</v>
-      </c>
-      <c r="AC53" s="52" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="54" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A54" s="67">
-        <v>43494</v>
-      </c>
-      <c r="B54" s="9">
-        <v>52</v>
-      </c>
-      <c r="C54" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="D54" s="36">
-        <v>6</v>
-      </c>
-      <c r="E54" s="39" t="s">
-        <v>267</v>
-      </c>
-      <c r="F54" s="36" t="s">
-        <v>319</v>
-      </c>
-      <c r="G54" s="36" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="55" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A55" s="68">
-        <v>43544</v>
-      </c>
-      <c r="B55" s="54">
-        <v>26</v>
-      </c>
-      <c r="C55" s="54" t="s">
-        <v>164</v>
-      </c>
-      <c r="D55" s="52">
-        <v>9</v>
-      </c>
-      <c r="E55" s="52" t="s">
-        <v>391</v>
-      </c>
-      <c r="F55" s="52" t="s">
-        <v>408</v>
-      </c>
-      <c r="G55" s="52" t="s">
+      <c r="I56" s="16"/>
+      <c r="J56" s="16"/>
+      <c r="K56" s="41" t="s">
+        <v>330</v>
+      </c>
+      <c r="L56" s="16" t="s">
         <v>324</v>
       </c>
-      <c r="H55" s="52" t="s">
-        <v>325</v>
-      </c>
-      <c r="I55" s="52" t="s">
-        <v>407</v>
-      </c>
-      <c r="J55" s="52"/>
-      <c r="K55" s="52" t="s">
-        <v>408</v>
-      </c>
-      <c r="L55" s="52" t="s">
-        <v>409</v>
-      </c>
-      <c r="M55" s="52" t="s">
-        <v>410</v>
-      </c>
-      <c r="N55" s="52">
-        <v>94</v>
-      </c>
-      <c r="O55" s="52">
-        <v>77</v>
-      </c>
-      <c r="P55" s="52"/>
-      <c r="Q55" s="52"/>
-      <c r="R55" s="52"/>
-      <c r="S55" s="52" t="s">
-        <v>335</v>
-      </c>
-      <c r="T55" s="52"/>
-      <c r="U55" s="52"/>
-      <c r="V55" s="52"/>
-      <c r="W55" s="52"/>
-      <c r="X55" s="52"/>
-      <c r="Y55" s="52"/>
-      <c r="Z55" s="66">
-        <v>43544</v>
-      </c>
-      <c r="AA55" s="52"/>
-      <c r="AB55" s="52"/>
-      <c r="AC55" s="52" t="s">
-        <v>411</v>
-      </c>
-      <c r="AD55" s="52"/>
-      <c r="AE55" s="52"/>
-      <c r="AF55" s="52"/>
-      <c r="AG55" s="52"/>
-      <c r="AH55" s="52"/>
-      <c r="AI55" s="52"/>
-      <c r="AJ55" s="52"/>
-      <c r="AK55" s="52"/>
-      <c r="AL55" s="52"/>
-      <c r="AM55" s="52"/>
-      <c r="AN55" s="52"/>
-    </row>
-    <row r="56" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A56" s="45">
-        <v>43773</v>
-      </c>
-      <c r="B56" s="41">
-        <v>59</v>
-      </c>
-      <c r="C56" s="41" t="s">
-        <v>164</v>
-      </c>
-      <c r="D56" s="16">
-        <v>39</v>
-      </c>
-      <c r="E56" s="16" t="s">
-        <v>248</v>
-      </c>
-      <c r="F56" s="16" t="s">
-        <v>327</v>
-      </c>
-      <c r="G56" s="16" t="s">
-        <v>324</v>
-      </c>
-      <c r="H56" s="16" t="s">
-        <v>325</v>
-      </c>
-      <c r="I56" s="16" t="s">
-        <v>326</v>
-      </c>
-      <c r="J56" s="16"/>
-      <c r="K56" s="16" t="s">
-        <v>327</v>
-      </c>
-      <c r="L56" s="16" t="s">
-        <v>328</v>
-      </c>
-      <c r="M56" s="16" t="s">
-        <v>329</v>
-      </c>
-      <c r="N56" s="16" t="s">
-        <v>330</v>
+      <c r="M56" s="16">
+        <v>91</v>
+      </c>
+      <c r="N56" s="16">
+        <v>89</v>
       </c>
       <c r="O56" s="16">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="P56" s="16"/>
       <c r="Q56" s="16"/>
@@ -3867,461 +3869,451 @@
       <c r="S56" s="16" t="s">
         <v>331</v>
       </c>
-      <c r="T56" s="16"/>
+      <c r="T56" s="16" t="s">
+        <v>332</v>
+      </c>
       <c r="U56" s="16"/>
     </row>
-    <row r="57" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A57" s="45">
-        <v>43795</v>
-      </c>
-      <c r="B57" s="41">
-        <v>37</v>
-      </c>
-      <c r="C57" s="41" t="s">
-        <v>165</v>
+    <row r="57" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="44">
+        <v>43797</v>
+      </c>
+      <c r="B57" s="40">
+        <v>55</v>
+      </c>
+      <c r="C57" s="42" t="s">
+        <v>164</v>
       </c>
       <c r="D57" s="16">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>332</v>
-      </c>
-      <c r="F57" s="16" t="s">
-        <v>327</v>
+        <v>333</v>
+      </c>
+      <c r="F57" s="63" t="s">
+        <v>337</v>
       </c>
       <c r="G57" s="16" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="H57" s="16" t="s">
+        <v>321</v>
+      </c>
+      <c r="I57" s="16" t="s">
+        <v>336</v>
+      </c>
+      <c r="J57" s="16"/>
+      <c r="K57" s="41" t="s">
+        <v>337</v>
+      </c>
+      <c r="L57" s="16" t="s">
+        <v>338</v>
+      </c>
+      <c r="M57" s="16" t="s">
         <v>325</v>
       </c>
-      <c r="I57" s="16"/>
-      <c r="J57" s="16"/>
-      <c r="K57" s="42" t="s">
-        <v>334</v>
-      </c>
-      <c r="L57" s="16" t="s">
-        <v>328</v>
-      </c>
-      <c r="M57" s="16">
-        <v>91</v>
-      </c>
-      <c r="N57" s="16">
-        <v>89</v>
-      </c>
-      <c r="O57" s="16">
-        <v>96</v>
-      </c>
+      <c r="N57" s="16"/>
+      <c r="O57" s="16"/>
       <c r="P57" s="16"/>
       <c r="Q57" s="16"/>
       <c r="R57" s="16"/>
       <c r="S57" s="16" t="s">
-        <v>335</v>
-      </c>
-      <c r="T57" s="16" t="s">
-        <v>336</v>
-      </c>
+        <v>331</v>
+      </c>
+      <c r="T57" s="16"/>
       <c r="U57" s="16"/>
     </row>
-    <row r="58" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A58" s="45">
-        <v>43797</v>
-      </c>
-      <c r="B58" s="41">
-        <v>55</v>
-      </c>
-      <c r="C58" s="43" t="s">
-        <v>165</v>
+    <row r="58" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="44">
+        <v>43836</v>
+      </c>
+      <c r="B58" s="40">
+        <v>42</v>
+      </c>
+      <c r="C58" s="40" t="s">
+        <v>163</v>
       </c>
       <c r="D58" s="16">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>337</v>
-      </c>
-      <c r="F58" s="69" t="s">
+        <v>339</v>
+      </c>
+      <c r="F58" s="64" t="s">
         <v>341</v>
       </c>
       <c r="G58" s="16" t="s">
-        <v>339</v>
-      </c>
-      <c r="H58" s="16" t="s">
-        <v>325</v>
-      </c>
-      <c r="I58" s="16" t="s">
         <v>340</v>
       </c>
+      <c r="H58" s="16"/>
+      <c r="I58" s="16"/>
       <c r="J58" s="16"/>
-      <c r="K58" s="42" t="s">
+      <c r="K58" s="16" t="s">
         <v>341</v>
       </c>
       <c r="L58" s="16" t="s">
+        <v>324</v>
+      </c>
+      <c r="M58" s="16" t="s">
         <v>342</v>
       </c>
-      <c r="M58" s="16" t="s">
-        <v>329</v>
-      </c>
-      <c r="N58" s="16"/>
-      <c r="O58" s="16"/>
+      <c r="N58" s="16" t="s">
+        <v>342</v>
+      </c>
+      <c r="O58" s="16" t="s">
+        <v>342</v>
+      </c>
       <c r="P58" s="16"/>
       <c r="Q58" s="16"/>
       <c r="R58" s="16"/>
       <c r="S58" s="16" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="T58" s="16"/>
       <c r="U58" s="16"/>
     </row>
-    <row r="59" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A59" s="45">
-        <v>43836</v>
-      </c>
-      <c r="B59" s="41">
-        <v>42</v>
-      </c>
-      <c r="C59" s="41" t="s">
-        <v>164</v>
+    <row r="59" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="44">
+        <v>43892</v>
+      </c>
+      <c r="B59" s="40">
+        <v>57</v>
+      </c>
+      <c r="C59" s="40" t="s">
+        <v>163</v>
       </c>
       <c r="D59" s="16">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>343</v>
-      </c>
-      <c r="F59" s="70" t="s">
-        <v>345</v>
+        <v>247</v>
+      </c>
+      <c r="F59" s="22" t="s">
+        <v>346</v>
       </c>
       <c r="G59" s="16" t="s">
         <v>344</v>
       </c>
       <c r="H59" s="16"/>
-      <c r="I59" s="16"/>
-      <c r="J59" s="16"/>
-      <c r="K59" s="16" t="s">
+      <c r="I59" s="16" t="s">
+        <v>321</v>
+      </c>
+      <c r="J59" s="16" t="s">
         <v>345</v>
       </c>
+      <c r="K59" s="16"/>
       <c r="L59" s="16" t="s">
-        <v>328</v>
+        <v>346</v>
       </c>
       <c r="M59" s="16" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="N59" s="16" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="O59" s="16" t="s">
-        <v>346</v>
-      </c>
-      <c r="P59" s="16"/>
-      <c r="Q59" s="16"/>
+        <v>349</v>
+      </c>
+      <c r="P59" s="16" t="s">
+        <v>349</v>
+      </c>
+      <c r="Q59" s="16" t="s">
+        <v>349</v>
+      </c>
       <c r="R59" s="16"/>
-      <c r="S59" s="16" t="s">
-        <v>335</v>
-      </c>
+      <c r="S59" s="16"/>
       <c r="T59" s="16"/>
-      <c r="U59" s="16"/>
-    </row>
-    <row r="60" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A60" s="45">
-        <v>43892</v>
-      </c>
-      <c r="B60" s="41">
-        <v>57</v>
-      </c>
-      <c r="C60" s="41" t="s">
+      <c r="U59" s="16" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="60" spans="1:40" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A60" s="67">
+        <v>43857</v>
+      </c>
+      <c r="B60" s="9">
+        <v>24</v>
+      </c>
+      <c r="C60" s="9" t="s">
         <v>164</v>
       </c>
       <c r="D60" s="16">
-        <v>56</v>
+        <v>4</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>248</v>
-      </c>
-      <c r="F60" s="22" t="s">
-        <v>350</v>
-      </c>
-      <c r="G60" s="16" t="s">
-        <v>348</v>
-      </c>
-      <c r="H60" s="16"/>
-      <c r="I60" s="16" t="s">
-        <v>325</v>
-      </c>
-      <c r="J60" s="16" t="s">
-        <v>349</v>
-      </c>
-      <c r="K60" s="16"/>
-      <c r="L60" s="16" t="s">
-        <v>350</v>
-      </c>
-      <c r="M60" s="16" t="s">
-        <v>351</v>
-      </c>
-      <c r="N60" s="16" t="s">
-        <v>352</v>
-      </c>
-      <c r="O60" s="16" t="s">
-        <v>353</v>
-      </c>
-      <c r="P60" s="16" t="s">
-        <v>353</v>
-      </c>
-      <c r="Q60" s="16" t="s">
-        <v>353</v>
-      </c>
-      <c r="R60" s="16"/>
-      <c r="S60" s="16"/>
-      <c r="T60" s="16"/>
-      <c r="U60" s="16" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="61" spans="1:40" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="H61" s="28" t="s">
+        <v>247</v>
+      </c>
+      <c r="F60" s="69" t="s">
+        <v>225</v>
+      </c>
+      <c r="G60" t="s">
+        <v>176</v>
+      </c>
+      <c r="H60" s="27" t="s">
+        <v>272</v>
+      </c>
+      <c r="I60" s="70" t="s">
         <v>273</v>
       </c>
-      <c r="I61" s="47" t="s">
-        <v>274</v>
-      </c>
-      <c r="J61" s="47"/>
-      <c r="K61" s="47"/>
-      <c r="L61" s="47"/>
-      <c r="M61" s="47"/>
-      <c r="N61" s="28"/>
-    </row>
-    <row r="62" spans="1:40" s="52" customFormat="1" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="G62" s="54"/>
-    </row>
-    <row r="63" spans="1:40" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="H63" s="28" t="s">
+      <c r="J60" s="70"/>
+      <c r="K60" s="70"/>
+      <c r="L60" s="70"/>
+      <c r="M60" s="70"/>
+      <c r="N60" s="27"/>
+    </row>
+    <row r="61" spans="1:40" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="68">
+        <v>43858</v>
+      </c>
+      <c r="B61" s="49">
+        <v>33</v>
+      </c>
+      <c r="C61" s="49" t="s">
+        <v>164</v>
+      </c>
+      <c r="D61" s="49">
+        <v>6</v>
+      </c>
+      <c r="E61" s="16" t="s">
+        <v>247</v>
+      </c>
+      <c r="F61" t="s">
+        <v>399</v>
+      </c>
+      <c r="G61" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="62" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H62" s="27" t="s">
+        <v>276</v>
+      </c>
+      <c r="I62" s="28" t="s">
         <v>277</v>
       </c>
-      <c r="I63" s="29" t="s">
+      <c r="J62" s="27"/>
+      <c r="K62" s="27"/>
+      <c r="L62" s="27"/>
+      <c r="M62" s="27"/>
+      <c r="N62" s="27"/>
+    </row>
+    <row r="63" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H63" s="27" t="s">
+        <v>167</v>
+      </c>
+      <c r="I63" s="70" t="s">
         <v>278</v>
       </c>
-      <c r="J63" s="28"/>
-      <c r="K63" s="28"/>
-      <c r="L63" s="28"/>
-      <c r="M63" s="28"/>
-      <c r="N63" s="28"/>
-    </row>
-    <row r="64" spans="1:40" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="H64" s="28" t="s">
-        <v>168</v>
-      </c>
-      <c r="I64" s="47" t="s">
-        <v>279</v>
-      </c>
-      <c r="J64" s="47"/>
-      <c r="K64" s="47"/>
-      <c r="L64" s="47"/>
-      <c r="M64" s="47"/>
-      <c r="N64" s="28"/>
-    </row>
-    <row r="65" spans="7:14" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="H65" s="48" t="s">
-        <v>281</v>
-      </c>
-      <c r="I65" s="48"/>
-      <c r="J65" s="22"/>
-      <c r="K65" s="28"/>
-      <c r="L65" s="28"/>
-      <c r="M65" s="28"/>
-      <c r="N65" s="28"/>
-    </row>
-    <row r="66" spans="7:14" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="H66" s="28" t="s">
+      <c r="J63" s="70"/>
+      <c r="K63" s="70"/>
+      <c r="L63" s="70"/>
+      <c r="M63" s="70"/>
+      <c r="N63" s="27"/>
+    </row>
+    <row r="64" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H64" s="71" t="s">
+        <v>280</v>
+      </c>
+      <c r="I64" s="71"/>
+      <c r="J64" s="22"/>
+      <c r="K64" s="27"/>
+      <c r="L64" s="27"/>
+      <c r="M64" s="27"/>
+      <c r="N64" s="27"/>
+    </row>
+    <row r="65" spans="7:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H65" s="27" t="s">
+        <v>282</v>
+      </c>
+      <c r="I65" s="70" t="s">
         <v>283</v>
       </c>
-      <c r="I66" s="47" t="s">
-        <v>284</v>
-      </c>
-      <c r="J66" s="47"/>
-      <c r="K66" s="47"/>
-      <c r="L66" s="28"/>
-      <c r="M66" s="28"/>
-      <c r="N66" s="28"/>
-    </row>
-    <row r="67" spans="7:14" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="H67" s="28" t="s">
+      <c r="J65" s="70"/>
+      <c r="K65" s="70"/>
+      <c r="L65" s="27"/>
+      <c r="M65" s="27"/>
+      <c r="N65" s="27"/>
+    </row>
+    <row r="66" spans="7:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H66" s="27" t="s">
+        <v>285</v>
+      </c>
+      <c r="I66" s="70" t="s">
         <v>286</v>
       </c>
-      <c r="I67" s="47" t="s">
+      <c r="J66" s="70"/>
+      <c r="K66" s="27"/>
+      <c r="L66" s="27"/>
+      <c r="M66" s="27"/>
+      <c r="N66" s="27"/>
+    </row>
+    <row r="67" spans="7:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H67" s="27" t="s">
         <v>287</v>
       </c>
-      <c r="J67" s="47"/>
-      <c r="K67" s="28"/>
-      <c r="L67" s="28"/>
-      <c r="M67" s="28"/>
-      <c r="N67" s="28"/>
-    </row>
-    <row r="68" spans="7:14" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="H68" s="28" t="s">
+      <c r="I67" s="70" t="s">
         <v>288</v>
       </c>
-      <c r="I68" s="47" t="s">
-        <v>289</v>
-      </c>
-      <c r="J68" s="47"/>
-      <c r="K68" s="47"/>
-      <c r="L68" s="47"/>
-      <c r="M68" s="47"/>
-      <c r="N68" s="28"/>
-    </row>
-    <row r="69" spans="7:14" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="H69" s="28" t="s">
+      <c r="J67" s="70"/>
+      <c r="K67" s="70"/>
+      <c r="L67" s="70"/>
+      <c r="M67" s="70"/>
+      <c r="N67" s="27"/>
+    </row>
+    <row r="68" spans="7:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H68" s="27" t="s">
+        <v>296</v>
+      </c>
+      <c r="I68" s="70" t="s">
         <v>297</v>
       </c>
-      <c r="I69" s="47" t="s">
-        <v>298</v>
-      </c>
-      <c r="J69" s="47"/>
-      <c r="K69" s="47"/>
-      <c r="L69" s="47"/>
-      <c r="M69" s="47"/>
-      <c r="N69" s="47"/>
-    </row>
-    <row r="70" spans="7:14" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="H70" s="28" t="s">
+      <c r="J68" s="70"/>
+      <c r="K68" s="70"/>
+      <c r="L68" s="70"/>
+      <c r="M68" s="70"/>
+      <c r="N68" s="70"/>
+    </row>
+    <row r="69" spans="7:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H69" s="27" t="s">
+        <v>299</v>
+      </c>
+      <c r="I69" s="70" t="s">
         <v>300</v>
       </c>
-      <c r="I70" s="47" t="s">
-        <v>301</v>
-      </c>
-      <c r="J70" s="47"/>
-      <c r="K70" s="22"/>
-      <c r="L70" s="22"/>
-      <c r="M70" s="22"/>
-      <c r="N70" s="22"/>
-    </row>
-    <row r="71" spans="7:14" ht="15" x14ac:dyDescent="0.45">
-      <c r="G71" s="30"/>
-    </row>
-    <row r="72" spans="7:14" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="G72" s="28" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="73" spans="7:14" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="G73" s="28" t="s">
+      <c r="J69" s="70"/>
+      <c r="K69" s="22"/>
+      <c r="L69" s="22"/>
+      <c r="M69" s="22"/>
+      <c r="N69" s="22"/>
+    </row>
+    <row r="70" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G70" s="29"/>
+    </row>
+    <row r="71" spans="7:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G71" s="27" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="72" spans="7:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G72" s="27" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="73" spans="7:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G73" s="27" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="74" spans="7:14" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="74" spans="7:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="G74" s="28" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="75" spans="7:14" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="G75" s="29" t="s">
+    <row r="75" spans="7:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G75" s="27" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="76" spans="7:14" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="G76" s="28" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="77" spans="7:14" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="G77" s="28" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="78" spans="7:14" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="G78" s="28" t="s">
+    <row r="76" spans="7:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G76" s="27" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="77" spans="7:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G77" s="27" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="78" spans="7:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G78" s="27" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="79" spans="7:14" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="G79" s="28" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="80" spans="7:14" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="G80" s="28" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="81" spans="7:7" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="G81" s="37" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="82" spans="7:7" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="G82" s="28" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="83" spans="7:7" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="G83" s="28" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="84" spans="7:7" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="G84" s="28" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="85" spans="7:7" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="G85" s="28" t="s">
+    <row r="79" spans="7:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G79" s="27" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="80" spans="7:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G80" s="36" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="81" spans="7:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G81" s="27" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="82" spans="7:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G82" s="27" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="83" spans="7:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G83" s="27" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="84" spans="7:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G84" s="27" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="85" spans="7:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G85" s="27" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="86" spans="7:7" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="G86" s="28" t="s">
+    <row r="86" spans="7:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G86" s="27" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="87" spans="7:7" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="G87" s="28" t="s">
+    <row r="87" spans="7:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G87" s="27" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="88" spans="7:7" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="G88" s="28" t="s">
+    <row r="88" spans="7:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G88" s="27" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="89" spans="7:7" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="G89" s="28" t="s">
+    <row r="89" spans="7:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G89" s="27" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="90" spans="7:7" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="G90" s="28" t="s">
+    <row r="90" spans="7:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G90" s="27" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="91" spans="7:7" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="G91" s="28" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="92" spans="7:7" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="G92" s="28" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="93" spans="7:7" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="G93" s="40" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="94" spans="7:7" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="G94" s="40" t="s">
-        <v>338</v>
+    <row r="91" spans="7:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G91" s="27" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="92" spans="7:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G92" s="39" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="93" spans="7:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G93" s="39" t="s">
+        <v>334</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="I61:M61"/>
-    <mergeCell ref="I69:N69"/>
-    <mergeCell ref="I70:J70"/>
-    <mergeCell ref="I64:M64"/>
-    <mergeCell ref="H65:I65"/>
-    <mergeCell ref="I66:K66"/>
-    <mergeCell ref="I67:J67"/>
-    <mergeCell ref="I68:M68"/>
+    <mergeCell ref="I60:M60"/>
+    <mergeCell ref="I68:N68"/>
+    <mergeCell ref="I69:J69"/>
+    <mergeCell ref="I63:M63"/>
+    <mergeCell ref="H64:I64"/>
+    <mergeCell ref="I65:K65"/>
+    <mergeCell ref="I66:J66"/>
+    <mergeCell ref="I67:M67"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4338,34 +4330,34 @@
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.86328125" customWidth="1"/>
-    <col min="2" max="2" width="18.73046875" customWidth="1"/>
-    <col min="3" max="3" width="21.73046875" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="31" t="s">
+        <v>302</v>
+      </c>
+      <c r="B1" s="32" t="s">
         <v>303</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="C1" s="32" t="s">
         <v>304</v>
       </c>
-      <c r="C1" s="33" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A2" s="31">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="30">
         <v>42031</v>
       </c>
       <c r="B2" s="9">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A3" s="31">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="30">
         <v>42075</v>
       </c>
       <c r="B3" s="9">
@@ -4373,8 +4365,8 @@
       </c>
       <c r="C3" s="9"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A4" s="31">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="30">
         <v>42102</v>
       </c>
       <c r="B4" s="9">
@@ -4382,8 +4374,8 @@
       </c>
       <c r="C4" s="9"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A5" s="31">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="30">
         <v>42101</v>
       </c>
       <c r="B5" s="9"/>
@@ -4391,8 +4383,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A6" s="31">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="30">
         <v>42059</v>
       </c>
       <c r="B6" s="9"/>
@@ -4400,18 +4392,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A7" s="31">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="30">
         <v>41953</v>
       </c>
       <c r="B7" s="9"/>
       <c r="C7" s="9">
         <v>4</v>
       </c>
-      <c r="E7" s="34"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A8" s="31">
+      <c r="E7" s="33"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="30">
         <v>41835</v>
       </c>
       <c r="B8" s="9"/>
@@ -4419,8 +4411,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A9" s="31">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="30">
         <v>41807</v>
       </c>
       <c r="B9" s="9"/>
@@ -4428,8 +4420,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A10" s="31">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="30">
         <v>41795</v>
       </c>
       <c r="B10" s="9"/>
@@ -4437,8 +4429,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A11" s="31">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="30">
         <v>41774</v>
       </c>
       <c r="B11" s="9"/>
@@ -4446,8 +4438,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A12" s="31">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="30">
         <v>41751</v>
       </c>
       <c r="B12" s="9"/>
@@ -4455,8 +4447,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A13" s="31">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="30">
         <v>41614</v>
       </c>
       <c r="B13" s="9"/>
@@ -4464,9 +4456,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B15" s="11">
         <v>21</v>
@@ -4475,22 +4467,22 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A19" s="65">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="59">
         <v>42430</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
     </row>
   </sheetData>
@@ -4500,453 +4492,445 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AB29"/>
+  <dimension ref="A1:AA29"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="Y6" sqref="Y6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.1328125" customWidth="1"/>
+    <col min="1" max="1" width="16.140625" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="13.265625" customWidth="1"/>
-    <col min="5" max="5" width="14.86328125" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="14.1328125" customWidth="1"/>
-    <col min="8" max="8" width="16.86328125" customWidth="1"/>
-    <col min="9" max="9" width="15.265625" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" customWidth="1"/>
+    <col min="8" max="8" width="16.85546875" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" customWidth="1"/>
     <col min="10" max="10" width="15" customWidth="1"/>
-    <col min="11" max="11" width="14.73046875" customWidth="1"/>
-    <col min="12" max="12" width="19.19921875" customWidth="1"/>
+    <col min="11" max="11" width="24.28515625" customWidth="1"/>
+    <col min="12" max="12" width="33.85546875" customWidth="1"/>
     <col min="13" max="13" width="29" customWidth="1"/>
-    <col min="14" max="14" width="24.59765625" customWidth="1"/>
-    <col min="15" max="15" width="23.1328125" customWidth="1"/>
-    <col min="16" max="16" width="19.59765625" customWidth="1"/>
-    <col min="17" max="17" width="27.59765625" customWidth="1"/>
-    <col min="18" max="18" width="30.59765625" customWidth="1"/>
-    <col min="19" max="20" width="20.1328125" customWidth="1"/>
+    <col min="14" max="14" width="24.7109375" customWidth="1"/>
+    <col min="15" max="15" width="23.140625" customWidth="1"/>
+    <col min="16" max="16" width="19.7109375" customWidth="1"/>
+    <col min="17" max="17" width="27.7109375" customWidth="1"/>
+    <col min="18" max="18" width="30.7109375" customWidth="1"/>
+    <col min="19" max="20" width="20.140625" customWidth="1"/>
     <col min="21" max="21" width="17" customWidth="1"/>
-    <col min="22" max="22" width="23.86328125" customWidth="1"/>
+    <col min="22" max="22" width="23.85546875" customWidth="1"/>
     <col min="23" max="23" width="19" customWidth="1"/>
-    <col min="24" max="24" width="15.59765625" customWidth="1"/>
-    <col min="25" max="25" width="16.796875" customWidth="1"/>
+    <col min="24" max="24" width="15.7109375" customWidth="1"/>
+    <col min="25" max="25" width="29.7109375" customWidth="1"/>
     <col min="26" max="26" width="16" customWidth="1"/>
     <col min="27" max="27" width="19" customWidth="1"/>
     <col min="28" max="28" width="16" customWidth="1"/>
-    <col min="29" max="29" width="15.3984375" customWidth="1"/>
+    <col min="29" max="29" width="15.28515625" customWidth="1"/>
     <col min="30" max="30" width="15" customWidth="1"/>
-    <col min="31" max="31" width="0.1328125" customWidth="1"/>
-    <col min="32" max="32" width="16.1328125" customWidth="1"/>
-    <col min="33" max="33" width="16.3984375" customWidth="1"/>
-    <col min="34" max="34" width="19.59765625" customWidth="1"/>
-    <col min="35" max="35" width="25.59765625" customWidth="1"/>
+    <col min="31" max="31" width="0.140625" customWidth="1"/>
+    <col min="32" max="32" width="16.140625" customWidth="1"/>
+    <col min="33" max="33" width="16.28515625" customWidth="1"/>
+    <col min="34" max="34" width="19.7109375" customWidth="1"/>
+    <col min="35" max="35" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="G2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="V2" s="49"/>
-      <c r="W2" s="49"/>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="G2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="V2" s="46"/>
+      <c r="W2" s="46"/>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>41610</v>
       </c>
       <c r="B3" s="7">
         <v>41611</v>
       </c>
-      <c r="C3" s="7"/>
+      <c r="C3" s="7">
+        <v>41583</v>
+      </c>
       <c r="D3" s="7">
-        <v>41583</v>
+        <v>41599</v>
       </c>
       <c r="E3" s="7">
-        <v>41599</v>
+        <v>42171</v>
       </c>
       <c r="F3" s="7">
-        <v>42171</v>
+        <v>42173</v>
       </c>
       <c r="G3" s="7">
-        <v>42173</v>
+        <v>42177</v>
       </c>
       <c r="H3" s="7">
-        <v>42177</v>
+        <v>42208</v>
       </c>
       <c r="I3" s="7">
-        <v>42208</v>
-      </c>
-      <c r="J3" s="7">
         <v>42236</v>
       </c>
-      <c r="K3" s="2">
+      <c r="J3" s="2">
         <v>42285</v>
       </c>
-      <c r="L3" s="2" t="s">
-        <v>401</v>
+      <c r="K3" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="L3" s="7">
+        <v>41619</v>
       </c>
       <c r="M3" s="7">
-        <v>41619</v>
+        <v>41666</v>
       </c>
       <c r="N3" s="7">
-        <v>41666</v>
+        <v>42397</v>
       </c>
       <c r="O3" s="7">
-        <v>42397</v>
-      </c>
-      <c r="P3" s="7">
         <v>42404</v>
       </c>
+      <c r="P3" s="2">
+        <v>42429</v>
+      </c>
       <c r="Q3" s="2">
-        <v>42429</v>
-      </c>
-      <c r="R3" s="2">
         <v>42430</v>
       </c>
-      <c r="S3" s="35">
+      <c r="R3" s="34">
         <v>43487</v>
       </c>
-      <c r="T3" s="35" t="s">
-        <v>382</v>
-      </c>
-      <c r="U3" s="35">
+      <c r="S3" s="34">
+        <v>43493</v>
+      </c>
+      <c r="T3" s="34">
         <v>43494</v>
       </c>
-      <c r="V3" s="50">
+      <c r="U3" s="47">
         <v>43544</v>
       </c>
-      <c r="W3" s="50">
+      <c r="V3" s="47">
         <v>43773</v>
       </c>
-      <c r="X3" s="50">
+      <c r="W3" s="47">
         <v>43795</v>
       </c>
-      <c r="Y3" s="50">
+      <c r="X3" s="47">
         <v>43797</v>
       </c>
-      <c r="Z3" s="50">
+      <c r="Y3" s="47">
         <v>43857</v>
       </c>
-      <c r="AA3" s="50">
+      <c r="Z3" s="47">
         <v>43858</v>
       </c>
-      <c r="AB3" s="50">
+      <c r="AA3" s="47">
         <v>43892</v>
       </c>
     </row>
-    <row r="4" spans="1:28" s="51" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="51" t="s">
+    <row r="4" spans="1:27" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="60"/>
-      <c r="D4" s="51" t="s">
+      <c r="C4" s="48" t="s">
         <v>63</v>
       </c>
-      <c r="E4" s="51" t="s">
+      <c r="D4" s="48" t="s">
         <v>64</v>
       </c>
-      <c r="F4" s="51" t="s">
+      <c r="E4" s="48" t="s">
         <v>65</v>
       </c>
-      <c r="G4" s="51" t="s">
+      <c r="F4" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="H4" s="51" t="s">
+      <c r="G4" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="I4" s="51" t="s">
+      <c r="H4" s="48" t="s">
         <v>75</v>
       </c>
-      <c r="J4" s="51" t="s">
+      <c r="I4" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="K4" s="51" t="s">
+      <c r="J4" s="48" t="s">
         <v>77</v>
       </c>
-      <c r="L4" s="51" t="s">
+      <c r="K4" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="M4" s="51" t="s">
+      <c r="L4" s="48" t="s">
+        <v>85</v>
+      </c>
+      <c r="M4" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="N4" s="48" t="s">
+        <v>96</v>
+      </c>
+      <c r="O4" s="48" t="s">
+        <v>99</v>
+      </c>
+      <c r="P4" s="48" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q4" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="R4" s="48" t="s">
+        <v>309</v>
+      </c>
+      <c r="S4" s="48" t="s">
+        <v>370</v>
+      </c>
+      <c r="T4" s="48" t="s">
+        <v>310</v>
+      </c>
+      <c r="U4" s="48">
+        <v>19320001</v>
+      </c>
+      <c r="V4" s="48" t="s">
+        <v>357</v>
+      </c>
+      <c r="W4" s="48" t="s">
+        <v>358</v>
+      </c>
+      <c r="X4" s="48" t="s">
+        <v>361</v>
+      </c>
+      <c r="Y4" s="48" t="s">
+        <v>362</v>
+      </c>
+      <c r="Z4" s="48" t="s">
+        <v>367</v>
+      </c>
+      <c r="AA4" s="48" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="48" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="48" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" s="48" t="s">
+        <v>70</v>
+      </c>
+      <c r="J5" s="48" t="s">
+        <v>78</v>
+      </c>
+      <c r="L5" s="48" t="s">
         <v>86</v>
       </c>
-      <c r="N4" s="51" t="s">
+      <c r="M5" s="48" t="s">
         <v>95</v>
       </c>
-      <c r="O4" s="51" t="s">
+      <c r="N5" s="48" t="s">
         <v>97</v>
       </c>
-      <c r="P4" s="51" t="s">
+      <c r="O5" s="48" t="s">
         <v>100</v>
       </c>
-      <c r="Q4" s="51" t="s">
+      <c r="P5" s="48" t="s">
         <v>108</v>
       </c>
-      <c r="R4" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="S4" s="51" t="s">
+      <c r="S5" s="48" t="s">
+        <v>371</v>
+      </c>
+      <c r="T5" s="48" t="s">
+        <v>311</v>
+      </c>
+      <c r="U5" s="48">
+        <v>19320007</v>
+      </c>
+      <c r="W5" s="48" t="s">
+        <v>359</v>
+      </c>
+      <c r="Y5" s="48" t="s">
+        <v>363</v>
+      </c>
+      <c r="Z5" s="48" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="48" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" s="48" t="s">
+        <v>67</v>
+      </c>
+      <c r="G6" s="48" t="s">
+        <v>71</v>
+      </c>
+      <c r="J6" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="L6" s="48" t="s">
+        <v>87</v>
+      </c>
+      <c r="M6" s="56"/>
+      <c r="N6" s="48" t="s">
+        <v>98</v>
+      </c>
+      <c r="O6" s="48" t="s">
+        <v>101</v>
+      </c>
+      <c r="S6" s="48" t="s">
+        <v>372</v>
+      </c>
+      <c r="T6" s="48" t="s">
+        <v>312</v>
+      </c>
+      <c r="U6" s="48">
+        <v>19320030</v>
+      </c>
+      <c r="W6" s="48" t="s">
+        <v>360</v>
+      </c>
+      <c r="Y6" s="56" t="s">
+        <v>365</v>
+      </c>
+      <c r="Z6" s="48" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="48" t="s">
+        <v>61</v>
+      </c>
+      <c r="G7" s="48" t="s">
+        <v>72</v>
+      </c>
+      <c r="J7" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="L7" s="48" t="s">
+        <v>88</v>
+      </c>
+      <c r="M7" s="56"/>
+      <c r="O7" s="48" t="s">
+        <v>102</v>
+      </c>
+      <c r="S7" s="48" t="s">
+        <v>373</v>
+      </c>
+      <c r="T7" s="48" t="s">
         <v>313</v>
       </c>
-      <c r="T4" s="51" t="s">
-        <v>383</v>
-      </c>
-      <c r="U4" s="51" t="s">
+      <c r="U7" s="48">
+        <v>19320041</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="48" t="s">
+        <v>62</v>
+      </c>
+      <c r="G8" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="J8" s="48" t="s">
+        <v>81</v>
+      </c>
+      <c r="L8" s="48" t="s">
+        <v>89</v>
+      </c>
+      <c r="M8" s="56"/>
+      <c r="O8" s="48" t="s">
+        <v>103</v>
+      </c>
+      <c r="S8" s="48" t="s">
+        <v>374</v>
+      </c>
+      <c r="T8" s="48" t="s">
         <v>314</v>
       </c>
-      <c r="V4" s="51">
-        <v>19320001</v>
-      </c>
-      <c r="W4" s="51" t="s">
-        <v>369</v>
-      </c>
-      <c r="X4" s="51" t="s">
-        <v>370</v>
-      </c>
-      <c r="Y4" s="51" t="s">
-        <v>373</v>
-      </c>
-      <c r="Z4" s="51" t="s">
-        <v>374</v>
-      </c>
-      <c r="AA4" s="51" t="s">
-        <v>379</v>
-      </c>
-      <c r="AB4" s="51" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28" s="51" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="51" t="s">
-        <v>56</v>
-      </c>
-      <c r="B5" s="51" t="s">
-        <v>59</v>
-      </c>
-      <c r="F5" s="51" t="s">
-        <v>66</v>
-      </c>
-      <c r="H5" s="51" t="s">
-        <v>70</v>
-      </c>
-      <c r="K5" s="51" t="s">
-        <v>78</v>
-      </c>
-      <c r="M5" s="51" t="s">
-        <v>87</v>
-      </c>
-      <c r="N5" s="51" t="s">
-        <v>96</v>
-      </c>
-      <c r="O5" s="51" t="s">
-        <v>98</v>
-      </c>
-      <c r="P5" s="51" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q5" s="51" t="s">
-        <v>109</v>
-      </c>
-      <c r="T5" s="51" t="s">
-        <v>384</v>
-      </c>
-      <c r="U5" s="51" t="s">
-        <v>315</v>
-      </c>
-      <c r="V5" s="51">
-        <v>19320007</v>
-      </c>
-      <c r="X5" s="51" t="s">
-        <v>371</v>
-      </c>
-      <c r="Z5" s="51" t="s">
+    </row>
+    <row r="9" spans="1:27" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G9" s="48" t="s">
+        <v>74</v>
+      </c>
+      <c r="J9" s="48" t="s">
+        <v>82</v>
+      </c>
+      <c r="L9" s="48" t="s">
+        <v>90</v>
+      </c>
+      <c r="M9" s="56"/>
+      <c r="O9" s="48" t="s">
+        <v>104</v>
+      </c>
+      <c r="S9" s="48" t="s">
         <v>375</v>
       </c>
-      <c r="AA5" s="51" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28" s="51" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="51" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" s="51" t="s">
-        <v>60</v>
-      </c>
-      <c r="F6" s="51" t="s">
-        <v>67</v>
-      </c>
-      <c r="H6" s="51" t="s">
-        <v>71</v>
-      </c>
-      <c r="K6" s="51" t="s">
-        <v>79</v>
-      </c>
-      <c r="M6" s="51" t="s">
-        <v>88</v>
-      </c>
-      <c r="N6" s="60"/>
-      <c r="O6" s="51" t="s">
-        <v>99</v>
-      </c>
-      <c r="P6" s="51" t="s">
-        <v>102</v>
-      </c>
-      <c r="T6" s="51" t="s">
-        <v>385</v>
-      </c>
-      <c r="U6" s="51" t="s">
-        <v>316</v>
-      </c>
-      <c r="V6" s="51">
-        <v>19320030</v>
-      </c>
-      <c r="X6" s="51" t="s">
-        <v>372</v>
-      </c>
-      <c r="Z6" s="51" t="s">
+    </row>
+    <row r="10" spans="1:27" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="56"/>
+      <c r="J10" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="L10" s="48" t="s">
+        <v>91</v>
+      </c>
+      <c r="M10" s="56"/>
+      <c r="O10" s="48" t="s">
+        <v>105</v>
+      </c>
+      <c r="S10" s="48" t="s">
         <v>376</v>
       </c>
-      <c r="AA6" s="51" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28" s="51" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="51" t="s">
-        <v>61</v>
-      </c>
-      <c r="H7" s="51" t="s">
-        <v>72</v>
-      </c>
-      <c r="K7" s="51" t="s">
-        <v>80</v>
-      </c>
-      <c r="M7" s="51" t="s">
-        <v>89</v>
-      </c>
-      <c r="N7" s="60"/>
-      <c r="P7" s="51" t="s">
-        <v>103</v>
-      </c>
-      <c r="T7" s="51" t="s">
-        <v>386</v>
-      </c>
-      <c r="U7" s="51" t="s">
-        <v>317</v>
-      </c>
-      <c r="V7" s="51">
-        <v>19320041</v>
-      </c>
-      <c r="Z7" s="51" t="s">
+    </row>
+    <row r="11" spans="1:27" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J11" s="48" t="s">
+        <v>84</v>
+      </c>
+      <c r="L11" s="48" t="s">
+        <v>92</v>
+      </c>
+      <c r="M11" s="56"/>
+      <c r="O11" s="48" t="s">
+        <v>106</v>
+      </c>
+      <c r="S11" s="48" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="8" spans="1:28" s="51" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="51" t="s">
-        <v>62</v>
-      </c>
-      <c r="H8" s="51" t="s">
-        <v>73</v>
-      </c>
-      <c r="K8" s="51" t="s">
-        <v>81</v>
-      </c>
-      <c r="M8" s="51" t="s">
-        <v>90</v>
-      </c>
-      <c r="N8" s="60"/>
-      <c r="P8" s="51" t="s">
-        <v>104</v>
-      </c>
-      <c r="T8" s="51" t="s">
-        <v>387</v>
-      </c>
-      <c r="U8" s="51" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28" s="51" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="H9" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="K9" s="51" t="s">
-        <v>82</v>
-      </c>
-      <c r="M9" s="51" t="s">
-        <v>91</v>
-      </c>
-      <c r="N9" s="60"/>
-      <c r="P9" s="51" t="s">
-        <v>105</v>
-      </c>
-      <c r="T9" s="51" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28" s="51" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="60"/>
-      <c r="K10" s="51" t="s">
-        <v>83</v>
-      </c>
-      <c r="M10" s="51" t="s">
-        <v>92</v>
-      </c>
-      <c r="N10" s="60"/>
-      <c r="P10" s="51" t="s">
-        <v>106</v>
-      </c>
-      <c r="T10" s="51" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28" s="51" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="K11" s="51" t="s">
-        <v>84</v>
-      </c>
-      <c r="M11" s="51" t="s">
+    <row r="12" spans="1:27" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L12" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="N11" s="60"/>
-      <c r="P11" s="51" t="s">
-        <v>107</v>
-      </c>
-      <c r="T11" s="51" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="12" spans="1:28" s="51" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="K12" s="51" t="s">
-        <v>85</v>
-      </c>
-      <c r="M12" s="51" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="13" spans="1:28" s="51" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="14" spans="1:28" s="51" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="N14" s="60"/>
-    </row>
-    <row r="15" spans="1:28" s="51" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.45">
+    </row>
+    <row r="13" spans="1:27" s="48" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:27" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M14" s="56"/>
+    </row>
+    <row r="15" spans="1:27" s="48" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
-      <c r="M16" s="49"/>
-      <c r="N16" s="49"/>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="M16" s="46"/>
+      <c r="N16" s="46"/>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>41751</v>
       </c>
@@ -4980,382 +4964,377 @@
       <c r="K18" s="8">
         <v>41946</v>
       </c>
-      <c r="L18" s="8"/>
+      <c r="L18" s="8">
+        <v>41947</v>
+      </c>
       <c r="M18" s="8">
-        <v>41947</v>
+        <v>41953</v>
       </c>
       <c r="N18" s="8">
-        <v>41953</v>
-      </c>
-      <c r="O18" s="8">
         <v>42059</v>
       </c>
+      <c r="O18" s="3">
+        <v>42065</v>
+      </c>
       <c r="P18" s="3">
-        <v>42065</v>
-      </c>
-      <c r="Q18" s="3">
         <v>42093</v>
       </c>
-      <c r="R18" s="8">
+      <c r="Q18" s="8">
         <v>42101</v>
       </c>
-      <c r="S18" s="3">
+      <c r="R18" s="3">
         <v>42114</v>
       </c>
       <c r="T18" s="3"/>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A19" s="51" t="s">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A19" s="48" t="s">
+        <v>109</v>
+      </c>
+      <c r="B19" s="48" t="s">
+        <v>112</v>
+      </c>
+      <c r="C19" s="48" t="s">
+        <v>118</v>
+      </c>
+      <c r="D19" s="48" t="s">
+        <v>120</v>
+      </c>
+      <c r="E19" s="48" t="s">
+        <v>126</v>
+      </c>
+      <c r="F19" s="48" t="s">
+        <v>128</v>
+      </c>
+      <c r="G19" s="48" t="s">
+        <v>133</v>
+      </c>
+      <c r="H19" s="48" t="s">
+        <v>135</v>
+      </c>
+      <c r="I19" s="48" t="s">
+        <v>138</v>
+      </c>
+      <c r="J19" s="48" t="s">
+        <v>140</v>
+      </c>
+      <c r="K19" s="48" t="s">
+        <v>144</v>
+      </c>
+      <c r="L19" s="48" t="s">
+        <v>146</v>
+      </c>
+      <c r="M19" s="48" t="s">
+        <v>149</v>
+      </c>
+      <c r="N19" s="48" t="s">
+        <v>151</v>
+      </c>
+      <c r="O19" s="48" t="s">
+        <v>153</v>
+      </c>
+      <c r="P19" s="48" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q19" s="48" t="s">
+        <v>156</v>
+      </c>
+      <c r="R19" s="48" t="s">
+        <v>157</v>
+      </c>
+      <c r="T19" s="48"/>
+      <c r="U19" s="48"/>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A20" s="48" t="s">
         <v>110</v>
       </c>
-      <c r="B19" s="51" t="s">
+      <c r="B20" s="48" t="s">
         <v>113</v>
       </c>
-      <c r="C19" s="51" t="s">
+      <c r="C20" s="48" t="s">
         <v>119</v>
       </c>
-      <c r="D19" s="51" t="s">
+      <c r="D20" s="48" t="s">
         <v>121</v>
       </c>
-      <c r="E19" s="51" t="s">
+      <c r="E20" s="48" t="s">
         <v>127</v>
       </c>
-      <c r="F19" s="51" t="s">
+      <c r="F20" s="48" t="s">
         <v>129</v>
       </c>
-      <c r="G19" s="51" t="s">
+      <c r="G20" s="48" t="s">
         <v>134</v>
       </c>
-      <c r="H19" s="51" t="s">
+      <c r="H20" s="48" t="s">
         <v>136</v>
       </c>
-      <c r="I19" s="51" t="s">
+      <c r="I20" s="48" t="s">
         <v>139</v>
       </c>
-      <c r="J19" s="51" t="s">
+      <c r="J20" s="48" t="s">
         <v>141</v>
       </c>
-      <c r="K19" s="51" t="s">
+      <c r="K20" s="48" t="s">
         <v>145</v>
       </c>
-      <c r="L19" s="51"/>
-      <c r="M19" s="51" t="s">
+      <c r="L20" s="48" t="s">
         <v>147</v>
       </c>
-      <c r="N19" s="51" t="s">
+      <c r="M20" s="48" t="s">
         <v>150</v>
       </c>
-      <c r="O19" s="51" t="s">
+      <c r="N20" s="48" t="s">
         <v>152</v>
       </c>
-      <c r="P19" s="51" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q19" s="51" t="s">
+      <c r="O20" s="48"/>
+      <c r="P20" s="48" t="s">
         <v>155</v>
       </c>
-      <c r="R19" s="51" t="s">
-        <v>157</v>
-      </c>
-      <c r="S19" s="51" t="s">
+      <c r="Q20" s="48"/>
+      <c r="R20" s="48" t="s">
         <v>158</v>
       </c>
-      <c r="T19" s="51"/>
-      <c r="U19" s="51"/>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A20" s="51" t="s">
+      <c r="T20" s="48"/>
+      <c r="U20" s="48"/>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A21" s="48" t="s">
         <v>111</v>
       </c>
-      <c r="B20" s="60"/>
-      <c r="C20" s="51" t="s">
-        <v>120</v>
-      </c>
-      <c r="D20" s="51" t="s">
+      <c r="B21" s="48" t="s">
+        <v>114</v>
+      </c>
+      <c r="C21" s="48"/>
+      <c r="D21" s="48" t="s">
         <v>122</v>
       </c>
-      <c r="E20" s="51" t="s">
-        <v>128</v>
-      </c>
-      <c r="F20" s="51" t="s">
+      <c r="E21" s="48"/>
+      <c r="F21" s="48" t="s">
         <v>130</v>
       </c>
-      <c r="G20" s="51" t="s">
-        <v>135</v>
-      </c>
-      <c r="H20" s="51" t="s">
+      <c r="G21" s="48"/>
+      <c r="H21" s="48" t="s">
         <v>137</v>
       </c>
-      <c r="I20" s="51" t="s">
-        <v>140</v>
-      </c>
-      <c r="J20" s="51" t="s">
+      <c r="I21" s="48"/>
+      <c r="J21" s="48" t="s">
         <v>142</v>
       </c>
-      <c r="K20" s="51" t="s">
-        <v>146</v>
-      </c>
-      <c r="L20" s="51"/>
-      <c r="M20" s="51" t="s">
+      <c r="K21" s="48"/>
+      <c r="L21" s="48" t="s">
         <v>148</v>
       </c>
-      <c r="N20" s="51" t="s">
-        <v>151</v>
-      </c>
-      <c r="O20" s="51" t="s">
-        <v>153</v>
-      </c>
-      <c r="P20" s="51"/>
-      <c r="Q20" s="51" t="s">
-        <v>156</v>
-      </c>
-      <c r="R20" s="51"/>
-      <c r="S20" s="51" t="s">
-        <v>159</v>
-      </c>
-      <c r="T20" s="51"/>
-      <c r="U20" s="51"/>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A21" s="51" t="s">
-        <v>112</v>
-      </c>
-      <c r="B21" s="51" t="s">
-        <v>114</v>
-      </c>
-      <c r="C21" s="51"/>
-      <c r="D21" s="51" t="s">
+      <c r="M21" s="56"/>
+      <c r="N21" s="56"/>
+      <c r="O21" s="48"/>
+      <c r="P21" s="56"/>
+      <c r="Q21" s="48"/>
+      <c r="R21" s="48"/>
+      <c r="T21" s="48"/>
+      <c r="U21" s="48"/>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A22" s="56"/>
+      <c r="B22" s="48" t="s">
+        <v>115</v>
+      </c>
+      <c r="C22" s="48"/>
+      <c r="D22" s="48" t="s">
         <v>123</v>
       </c>
-      <c r="E21" s="51"/>
-      <c r="F21" s="51" t="s">
+      <c r="E22" s="48"/>
+      <c r="F22" s="48" t="s">
         <v>131</v>
       </c>
-      <c r="G21" s="51"/>
-      <c r="H21" s="51" t="s">
-        <v>138</v>
-      </c>
-      <c r="I21" s="51"/>
-      <c r="J21" s="51" t="s">
+      <c r="G22" s="48"/>
+      <c r="H22" s="56"/>
+      <c r="I22" s="48"/>
+      <c r="J22" s="48" t="s">
         <v>143</v>
       </c>
-      <c r="K21" s="51"/>
-      <c r="L21" s="51"/>
-      <c r="M21" s="51" t="s">
-        <v>149</v>
-      </c>
-      <c r="N21" s="60"/>
-      <c r="O21" s="60"/>
-      <c r="P21" s="51"/>
-      <c r="Q21" s="60"/>
-      <c r="R21" s="51"/>
-      <c r="S21" s="51"/>
-      <c r="T21" s="51"/>
-      <c r="U21" s="51"/>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A22" s="60"/>
-      <c r="B22" s="51" t="s">
-        <v>115</v>
-      </c>
-      <c r="C22" s="51"/>
-      <c r="D22" s="51" t="s">
+      <c r="K22" s="48"/>
+      <c r="L22" s="48"/>
+      <c r="M22" s="48"/>
+      <c r="N22" s="48"/>
+      <c r="O22" s="48"/>
+      <c r="P22" s="48"/>
+      <c r="Q22" s="48"/>
+      <c r="R22" s="48"/>
+      <c r="S22" s="48"/>
+      <c r="T22" s="48"/>
+      <c r="U22" s="48"/>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A23" s="48"/>
+      <c r="B23" s="48" t="s">
+        <v>116</v>
+      </c>
+      <c r="C23" s="48"/>
+      <c r="D23" s="48" t="s">
         <v>124</v>
       </c>
-      <c r="E22" s="51"/>
-      <c r="F22" s="51" t="s">
+      <c r="E23" s="48"/>
+      <c r="F23" s="48" t="s">
         <v>132</v>
       </c>
-      <c r="G22" s="51"/>
-      <c r="H22" s="60"/>
-      <c r="I22" s="51"/>
-      <c r="J22" s="51" t="s">
-        <v>144</v>
-      </c>
-      <c r="K22" s="51"/>
-      <c r="L22" s="51"/>
-      <c r="M22" s="51"/>
-      <c r="N22" s="51"/>
-      <c r="O22" s="51"/>
-      <c r="P22" s="51"/>
-      <c r="Q22" s="51"/>
-      <c r="R22" s="51"/>
-      <c r="S22" s="51"/>
-      <c r="T22" s="51"/>
-      <c r="U22" s="51"/>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A23" s="51"/>
-      <c r="B23" s="51" t="s">
-        <v>116</v>
-      </c>
-      <c r="C23" s="51"/>
-      <c r="D23" s="51" t="s">
+      <c r="G23" s="48"/>
+      <c r="H23" s="48"/>
+      <c r="I23" s="48"/>
+      <c r="J23" s="48"/>
+      <c r="K23" s="48"/>
+      <c r="L23" s="48"/>
+      <c r="M23" s="48"/>
+      <c r="N23" s="48"/>
+      <c r="O23" s="48"/>
+      <c r="P23" s="48"/>
+      <c r="Q23" s="48"/>
+      <c r="R23" s="48"/>
+      <c r="S23" s="48"/>
+      <c r="T23" s="48"/>
+      <c r="U23" s="48"/>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A24" s="48"/>
+      <c r="B24" s="48" t="s">
+        <v>117</v>
+      </c>
+      <c r="C24" s="48"/>
+      <c r="D24" s="48" t="s">
         <v>125</v>
       </c>
-      <c r="E23" s="51"/>
-      <c r="F23" s="51" t="s">
-        <v>133</v>
-      </c>
-      <c r="G23" s="51"/>
-      <c r="H23" s="51"/>
-      <c r="I23" s="51"/>
-      <c r="J23" s="51"/>
-      <c r="K23" s="51"/>
-      <c r="L23" s="51"/>
-      <c r="M23" s="51"/>
-      <c r="N23" s="51"/>
-      <c r="O23" s="51"/>
-      <c r="P23" s="51"/>
-      <c r="Q23" s="51"/>
-      <c r="R23" s="51"/>
-      <c r="S23" s="51"/>
-      <c r="T23" s="51"/>
-      <c r="U23" s="51"/>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A24" s="51"/>
-      <c r="B24" s="51" t="s">
-        <v>117</v>
-      </c>
-      <c r="C24" s="51"/>
-      <c r="D24" s="51" t="s">
-        <v>126</v>
-      </c>
-      <c r="E24" s="51"/>
-      <c r="F24" s="51"/>
-      <c r="G24" s="51"/>
-      <c r="H24" s="51"/>
-      <c r="I24" s="51"/>
-      <c r="J24" s="60"/>
-      <c r="K24" s="51"/>
-      <c r="L24" s="51"/>
-      <c r="M24" s="51"/>
-      <c r="N24" s="51"/>
-      <c r="O24" s="51"/>
-      <c r="P24" s="51"/>
-      <c r="Q24" s="51"/>
-      <c r="R24" s="51"/>
-      <c r="S24" s="51"/>
-      <c r="T24" s="51"/>
-      <c r="U24" s="51"/>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A25" s="51"/>
-      <c r="B25" s="51" t="s">
-        <v>118</v>
-      </c>
-      <c r="C25" s="51"/>
-      <c r="D25" s="60"/>
-      <c r="E25" s="51"/>
-      <c r="F25" s="51"/>
-      <c r="G25" s="51"/>
-      <c r="H25" s="51"/>
-      <c r="I25" s="51"/>
-      <c r="J25" s="60"/>
-      <c r="K25" s="51"/>
-      <c r="L25" s="51"/>
-      <c r="M25" s="51"/>
-      <c r="N25" s="51"/>
-      <c r="O25" s="51"/>
-      <c r="P25" s="51"/>
-      <c r="Q25" s="51"/>
-      <c r="R25" s="51"/>
-      <c r="S25" s="51"/>
-      <c r="T25" s="51"/>
-      <c r="U25" s="51"/>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A26" s="51"/>
-      <c r="B26" s="51"/>
-      <c r="C26" s="51"/>
-      <c r="D26" s="51"/>
-      <c r="E26" s="51"/>
-      <c r="F26" s="51"/>
-      <c r="G26" s="51"/>
-      <c r="H26" s="51"/>
-      <c r="I26" s="51"/>
-      <c r="J26" s="51"/>
-      <c r="K26" s="51"/>
-      <c r="L26" s="51"/>
-      <c r="M26" s="51"/>
-      <c r="N26" s="51"/>
-      <c r="O26" s="51"/>
-      <c r="P26" s="51"/>
-      <c r="Q26" s="51"/>
-      <c r="R26" s="51"/>
-      <c r="S26" s="51"/>
-      <c r="T26" s="51"/>
-      <c r="U26" s="51"/>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A27" s="51"/>
-      <c r="B27" s="51"/>
-      <c r="C27" s="51"/>
-      <c r="D27" s="51"/>
-      <c r="E27" s="51"/>
-      <c r="F27" s="51"/>
-      <c r="G27" s="51"/>
-      <c r="H27" s="51"/>
-      <c r="I27" s="51"/>
-      <c r="J27" s="51"/>
-      <c r="K27" s="51"/>
-      <c r="L27" s="51"/>
-      <c r="M27" s="51"/>
-      <c r="N27" s="51"/>
-      <c r="O27" s="51"/>
-      <c r="P27" s="51"/>
-      <c r="Q27" s="51"/>
-      <c r="R27" s="51"/>
-      <c r="S27" s="51"/>
-      <c r="T27" s="51"/>
-      <c r="U27" s="51"/>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A28" s="51"/>
-      <c r="B28" s="51"/>
-      <c r="C28" s="51"/>
-      <c r="D28" s="51"/>
-      <c r="E28" s="51"/>
-      <c r="F28" s="51"/>
-      <c r="G28" s="51"/>
-      <c r="H28" s="51"/>
-      <c r="I28" s="51"/>
-      <c r="J28" s="51"/>
-      <c r="K28" s="51"/>
-      <c r="L28" s="51"/>
-      <c r="M28" s="51"/>
-      <c r="N28" s="51"/>
-      <c r="O28" s="51"/>
-      <c r="P28" s="51"/>
-      <c r="Q28" s="51"/>
-      <c r="R28" s="51"/>
-      <c r="S28" s="51"/>
-      <c r="T28" s="51"/>
-      <c r="U28" s="51"/>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A29" s="51"/>
-      <c r="B29" s="51"/>
-      <c r="C29" s="51"/>
-      <c r="D29" s="51"/>
-      <c r="E29" s="51"/>
-      <c r="F29" s="51"/>
-      <c r="G29" s="51"/>
-      <c r="H29" s="51"/>
-      <c r="I29" s="51"/>
-      <c r="J29" s="51"/>
-      <c r="K29" s="51"/>
-      <c r="L29" s="51"/>
-      <c r="M29" s="51"/>
-      <c r="N29" s="51"/>
-      <c r="O29" s="51"/>
-      <c r="P29" s="51"/>
-      <c r="Q29" s="51"/>
-      <c r="R29" s="51"/>
-      <c r="S29" s="51"/>
-      <c r="T29" s="51"/>
-      <c r="U29" s="51"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="48"/>
+      <c r="G24" s="48"/>
+      <c r="H24" s="48"/>
+      <c r="I24" s="48"/>
+      <c r="J24" s="56"/>
+      <c r="K24" s="48"/>
+      <c r="L24" s="48"/>
+      <c r="M24" s="48"/>
+      <c r="N24" s="48"/>
+      <c r="O24" s="48"/>
+      <c r="P24" s="48"/>
+      <c r="Q24" s="48"/>
+      <c r="R24" s="48"/>
+      <c r="S24" s="48"/>
+      <c r="T24" s="48"/>
+      <c r="U24" s="48"/>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A25" s="48"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="56"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="48"/>
+      <c r="G25" s="48"/>
+      <c r="H25" s="48"/>
+      <c r="I25" s="48"/>
+      <c r="J25" s="56"/>
+      <c r="K25" s="48"/>
+      <c r="L25" s="48"/>
+      <c r="M25" s="48"/>
+      <c r="N25" s="48"/>
+      <c r="O25" s="48"/>
+      <c r="P25" s="48"/>
+      <c r="Q25" s="48"/>
+      <c r="R25" s="48"/>
+      <c r="S25" s="48"/>
+      <c r="T25" s="48"/>
+      <c r="U25" s="48"/>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A26" s="48"/>
+      <c r="B26" s="48"/>
+      <c r="C26" s="48"/>
+      <c r="D26" s="48"/>
+      <c r="E26" s="48"/>
+      <c r="F26" s="48"/>
+      <c r="G26" s="48"/>
+      <c r="H26" s="48"/>
+      <c r="I26" s="48"/>
+      <c r="J26" s="48"/>
+      <c r="K26" s="48"/>
+      <c r="L26" s="48"/>
+      <c r="M26" s="48"/>
+      <c r="N26" s="48"/>
+      <c r="O26" s="48"/>
+      <c r="P26" s="48"/>
+      <c r="Q26" s="48"/>
+      <c r="R26" s="48"/>
+      <c r="S26" s="48"/>
+      <c r="T26" s="48"/>
+      <c r="U26" s="48"/>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A27" s="48"/>
+      <c r="B27" s="48"/>
+      <c r="C27" s="48"/>
+      <c r="D27" s="48"/>
+      <c r="E27" s="48"/>
+      <c r="F27" s="48"/>
+      <c r="G27" s="48"/>
+      <c r="H27" s="48"/>
+      <c r="I27" s="48"/>
+      <c r="J27" s="48"/>
+      <c r="K27" s="48"/>
+      <c r="L27" s="48"/>
+      <c r="M27" s="48"/>
+      <c r="N27" s="48"/>
+      <c r="O27" s="48"/>
+      <c r="P27" s="48"/>
+      <c r="Q27" s="48"/>
+      <c r="R27" s="48"/>
+      <c r="S27" s="48"/>
+      <c r="T27" s="48"/>
+      <c r="U27" s="48"/>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A28" s="48"/>
+      <c r="B28" s="48"/>
+      <c r="C28" s="48"/>
+      <c r="D28" s="48"/>
+      <c r="E28" s="48"/>
+      <c r="F28" s="48"/>
+      <c r="G28" s="48"/>
+      <c r="H28" s="48"/>
+      <c r="I28" s="48"/>
+      <c r="J28" s="48"/>
+      <c r="K28" s="48"/>
+      <c r="L28" s="48"/>
+      <c r="M28" s="48"/>
+      <c r="N28" s="48"/>
+      <c r="O28" s="48"/>
+      <c r="P28" s="48"/>
+      <c r="Q28" s="48"/>
+      <c r="R28" s="48"/>
+      <c r="S28" s="48"/>
+      <c r="T28" s="48"/>
+      <c r="U28" s="48"/>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A29" s="48"/>
+      <c r="B29" s="48"/>
+      <c r="C29" s="48"/>
+      <c r="D29" s="48"/>
+      <c r="E29" s="48"/>
+      <c r="F29" s="48"/>
+      <c r="G29" s="48"/>
+      <c r="H29" s="48"/>
+      <c r="I29" s="48"/>
+      <c r="J29" s="48"/>
+      <c r="K29" s="48"/>
+      <c r="L29" s="48"/>
+      <c r="M29" s="48"/>
+      <c r="N29" s="48"/>
+      <c r="O29" s="48"/>
+      <c r="P29" s="48"/>
+      <c r="Q29" s="48"/>
+      <c r="R29" s="48"/>
+      <c r="S29" s="48"/>
+      <c r="T29" s="48"/>
+      <c r="U29" s="48"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5365,76 +5344,73 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D3A776A-DFE5-4B96-8CCC-566B0A76659E}">
-  <dimension ref="A2:U12"/>
+  <dimension ref="A2:S12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10:I10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.06640625" customWidth="1"/>
-    <col min="2" max="2" width="24.796875" customWidth="1"/>
-    <col min="3" max="3" width="26.06640625" customWidth="1"/>
-    <col min="4" max="4" width="23.3984375" customWidth="1"/>
-    <col min="5" max="5" width="21.1328125" customWidth="1"/>
+    <col min="1" max="1" width="24.85546875" customWidth="1"/>
+    <col min="2" max="3" width="23.28515625" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="63" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="61">
-        <v>43773</v>
-      </c>
-      <c r="B2" s="61">
-        <v>43795</v>
-      </c>
-      <c r="C2" s="62" t="s">
-        <v>356</v>
-      </c>
-      <c r="D2" s="61">
+    <row r="2" spans="1:19" s="58" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="65">
+        <v>43797</v>
+      </c>
+      <c r="B2" s="57">
         <v>43836</v>
       </c>
-      <c r="E2" s="61">
-        <v>43892</v>
-      </c>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41"/>
-      <c r="O2" s="41"/>
-      <c r="P2" s="41"/>
-      <c r="Q2" s="41"/>
-      <c r="R2" s="41"/>
-      <c r="S2" s="41"/>
-      <c r="T2" s="41"/>
-      <c r="U2" s="41"/>
-    </row>
-    <row r="3" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="C2" s="57">
+        <v>43857</v>
+      </c>
+      <c r="D2" s="57">
+        <v>43487</v>
+      </c>
+      <c r="E2" s="57">
+        <v>43494</v>
+      </c>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="40"/>
+      <c r="P2" s="40"/>
+      <c r="Q2" s="40"/>
+      <c r="R2" s="40"/>
+      <c r="S2" s="40"/>
+    </row>
+    <row r="3" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>359</v>
+        <v>400</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>356</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>361</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>360</v>
+        <v>364</v>
+      </c>
+      <c r="D3" s="16">
+        <v>19122022</v>
+      </c>
+      <c r="E3" s="16">
+        <v>19129040</v>
       </c>
       <c r="F3" s="16"/>
       <c r="G3" s="16"/>
       <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
+      <c r="I3" s="41"/>
       <c r="J3" s="16"/>
-      <c r="K3" s="42"/>
+      <c r="K3" s="16"/>
       <c r="L3" s="16"/>
       <c r="M3" s="16"/>
       <c r="N3" s="16"/>
@@ -5443,27 +5419,27 @@
       <c r="Q3" s="16"/>
       <c r="R3" s="16"/>
       <c r="S3" s="16"/>
-      <c r="T3" s="16"/>
-      <c r="U3" s="16"/>
-    </row>
-    <row r="4" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="4" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>354</v>
-      </c>
-      <c r="B4" s="41"/>
-      <c r="C4" s="9" t="s">
-        <v>357</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>362</v>
-      </c>
-      <c r="E4" s="41"/>
+        <v>350</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>352</v>
+      </c>
+      <c r="C4" s="9"/>
+      <c r="D4" s="16">
+        <v>19122024</v>
+      </c>
+      <c r="E4" s="16">
+        <v>19129047</v>
+      </c>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
       <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
+      <c r="I4" s="41"/>
       <c r="J4" s="16"/>
-      <c r="K4" s="42"/>
+      <c r="K4" s="16"/>
       <c r="L4" s="16"/>
       <c r="M4" s="16"/>
       <c r="N4" s="16"/>
@@ -5472,19 +5448,17 @@
       <c r="Q4" s="16"/>
       <c r="R4" s="16"/>
       <c r="S4" s="16"/>
-      <c r="T4" s="16"/>
-      <c r="U4" s="16"/>
-    </row>
-    <row r="5" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="64"/>
-      <c r="B5" s="41"/>
-      <c r="C5" s="9" t="s">
-        <v>358</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>363</v>
-      </c>
-      <c r="E5" s="41"/>
+    </row>
+    <row r="5" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="40"/>
+      <c r="B5" s="9" t="s">
+        <v>353</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="5" t="s">
+        <v>401</v>
+      </c>
       <c r="F5" s="16"/>
       <c r="G5" s="16"/>
       <c r="H5" s="16"/>
@@ -5499,17 +5473,15 @@
       <c r="Q5" s="16"/>
       <c r="R5" s="16"/>
       <c r="S5" s="16"/>
-      <c r="T5" s="16"/>
-      <c r="U5" s="16"/>
-    </row>
-    <row r="6" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="64"/>
-      <c r="B6" s="41"/>
+    </row>
+    <row r="6" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="40"/>
+      <c r="B6" s="9" t="s">
+        <v>354</v>
+      </c>
       <c r="C6" s="9"/>
-      <c r="D6" s="9" t="s">
-        <v>364</v>
-      </c>
-      <c r="E6" s="41"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
       <c r="F6" s="16"/>
       <c r="G6" s="16"/>
       <c r="H6" s="16"/>
@@ -5524,58 +5496,40 @@
       <c r="Q6" s="16"/>
       <c r="R6" s="16"/>
       <c r="S6" s="16"/>
-      <c r="T6" s="16"/>
-      <c r="U6" s="16"/>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.45">
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
+      <c r="B7" s="9" t="s">
+        <v>355</v>
+      </c>
       <c r="C7" s="9"/>
-      <c r="D7" s="9" t="s">
-        <v>365</v>
-      </c>
-      <c r="E7" s="9"/>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.45">
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
+      <c r="B8" s="9" t="s">
+        <v>356</v>
+      </c>
       <c r="C8" s="9"/>
-      <c r="D8" s="9" t="s">
-        <v>366</v>
-      </c>
-      <c r="E8" s="9"/>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.45">
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
-      <c r="D9" s="9" t="s">
-        <v>367</v>
-      </c>
-      <c r="E9" s="9"/>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.45">
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
-      <c r="D10" s="9" t="s">
-        <v>368</v>
-      </c>
-      <c r="E10" s="9"/>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.45">
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.45">
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
